--- a/SilverSurferVerslag/data/Lichtsensor berekeningen.xlsx
+++ b/SilverSurferVerslag/data/Lichtsensor berekeningen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>LSVeelLichtPaneelNietRijdend</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>LSWeinigLichtWitRijdend</t>
+  </si>
+  <si>
+    <t>LSVeelLichtZwartRijdendALT</t>
+  </si>
+  <si>
+    <t>LSVeelLichtZwartRijdend</t>
+  </si>
+  <si>
+    <t>LS Veel LichtZwartRijdend</t>
+  </si>
+  <si>
+    <t>LS VeelLichtZwartNietRijdend</t>
+  </si>
+  <si>
+    <t>LSVeelLichtZwartNietRijdend</t>
+  </si>
+  <si>
+    <t>US Recht</t>
   </si>
 </sst>
 </file>
@@ -431,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1003"/>
+  <dimension ref="A1:S1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +462,7 @@
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="162.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="162.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -472,8 +490,26 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -490,7 +526,7 @@
         <v>54.993769470404985</v>
       </c>
       <c r="E2" s="7">
-        <f t="shared" ref="D2:I2" si="0">AVERAGE(E4:E324)</f>
+        <f t="shared" ref="E2:I2" si="0">AVERAGE(E4:E324)</f>
         <v>55.026058631921821</v>
       </c>
       <c r="F2" s="7">
@@ -509,8 +545,48 @@
         <f t="shared" si="0"/>
         <v>54.984423676012462</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:S2" si="1">AVERAGE(J4:J324)</f>
+        <v>33.49666666666667</v>
+      </c>
+      <c r="K2" s="7">
+        <f t="shared" si="1"/>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" si="1"/>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="M2" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="N2" s="7">
+        <f>AVERAGE(N4:N324)</f>
+        <v>34</v>
+      </c>
+      <c r="O2" s="7">
+        <f t="shared" si="1"/>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P2" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R2" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S2" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -519,35 +595,75 @@
         <v>5.5814557218594824E-2</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:I3" si="1">_xlfn.STDEV.S(C4:C324)</f>
+        <f t="shared" ref="C3:I3" si="2">_xlfn.STDEV.S(C4:C324)</f>
         <v>0.64250410619680109</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11162911443718965</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96641567218926372</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0575717204640218</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2182494079365258</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:S3" si="3">_xlfn.STDEV.S(J4:J324)</f>
+        <v>0.59820429913245876</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27279060782780651</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27279060782780651</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="3"/>
+        <v>0.52314836378059681</v>
+      </c>
+      <c r="P3" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>49</v>
       </c>
@@ -572,8 +688,26 @@
       <c r="I4">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>50</v>
       </c>
@@ -598,8 +732,26 @@
       <c r="I5">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>50</v>
       </c>
@@ -624,8 +776,26 @@
       <c r="I6">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>33</v>
+      </c>
+      <c r="L6">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>50</v>
       </c>
@@ -650,8 +820,26 @@
       <c r="I7">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>34</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>50</v>
       </c>
@@ -676,8 +864,26 @@
       <c r="I8">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>50</v>
       </c>
@@ -702,8 +908,26 @@
       <c r="I9">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>50</v>
       </c>
@@ -728,8 +952,26 @@
       <c r="I10">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>34</v>
+      </c>
+      <c r="N10">
+        <v>34</v>
+      </c>
+      <c r="O10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>50</v>
       </c>
@@ -754,8 +996,26 @@
       <c r="I11">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>33</v>
+      </c>
+      <c r="K11">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>34</v>
+      </c>
+      <c r="M11">
+        <v>34</v>
+      </c>
+      <c r="N11">
+        <v>34</v>
+      </c>
+      <c r="O11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>50</v>
       </c>
@@ -780,8 +1040,26 @@
       <c r="I12">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>34</v>
+      </c>
+      <c r="L12">
+        <v>34</v>
+      </c>
+      <c r="M12">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50</v>
       </c>
@@ -806,8 +1084,26 @@
       <c r="I13">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="L13">
+        <v>33</v>
+      </c>
+      <c r="M13">
+        <v>34</v>
+      </c>
+      <c r="N13">
+        <v>34</v>
+      </c>
+      <c r="O13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>50</v>
       </c>
@@ -832,8 +1128,26 @@
       <c r="I14">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>33</v>
+      </c>
+      <c r="L14">
+        <v>33</v>
+      </c>
+      <c r="M14">
+        <v>34</v>
+      </c>
+      <c r="N14">
+        <v>34</v>
+      </c>
+      <c r="O14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>50</v>
       </c>
@@ -858,8 +1172,26 @@
       <c r="I15">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>33</v>
+      </c>
+      <c r="L15">
+        <v>33</v>
+      </c>
+      <c r="M15">
+        <v>34</v>
+      </c>
+      <c r="N15">
+        <v>34</v>
+      </c>
+      <c r="O15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -884,8 +1216,26 @@
       <c r="I16">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>33</v>
+      </c>
+      <c r="L16">
+        <v>33</v>
+      </c>
+      <c r="M16">
+        <v>34</v>
+      </c>
+      <c r="N16">
+        <v>34</v>
+      </c>
+      <c r="O16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>50</v>
       </c>
@@ -910,8 +1260,26 @@
       <c r="I17">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>33</v>
+      </c>
+      <c r="M17">
+        <v>34</v>
+      </c>
+      <c r="N17">
+        <v>34</v>
+      </c>
+      <c r="O17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>50</v>
       </c>
@@ -936,8 +1304,26 @@
       <c r="I18">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>33</v>
+      </c>
+      <c r="L18">
+        <v>33</v>
+      </c>
+      <c r="M18">
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <v>34</v>
+      </c>
+      <c r="O18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>50</v>
       </c>
@@ -962,8 +1348,26 @@
       <c r="I19">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <v>33</v>
+      </c>
+      <c r="L19">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>50</v>
       </c>
@@ -988,8 +1392,26 @@
       <c r="I20">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>33</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>34</v>
+      </c>
+      <c r="O20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>50</v>
       </c>
@@ -1014,8 +1436,26 @@
       <c r="I21">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>33</v>
+      </c>
+      <c r="L21">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>34</v>
+      </c>
+      <c r="O21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>50</v>
       </c>
@@ -1040,8 +1480,26 @@
       <c r="I22">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>33</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>34</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>50</v>
       </c>
@@ -1066,8 +1524,26 @@
       <c r="I23">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>33</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>34</v>
+      </c>
+      <c r="O23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>50</v>
       </c>
@@ -1092,8 +1568,23 @@
       <c r="I24">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>33</v>
+      </c>
+      <c r="L24">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50</v>
       </c>
@@ -1118,8 +1609,23 @@
       <c r="I25">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>33</v>
+      </c>
+      <c r="L25">
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>50</v>
       </c>
@@ -1144,8 +1650,23 @@
       <c r="I26">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>33</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>50</v>
       </c>
@@ -1170,8 +1691,23 @@
       <c r="I27">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>33</v>
+      </c>
+      <c r="L27">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>34</v>
+      </c>
+      <c r="N27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -1196,8 +1732,23 @@
       <c r="I28">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>35</v>
+      </c>
+      <c r="K28">
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <v>33</v>
+      </c>
+      <c r="M28">
+        <v>34</v>
+      </c>
+      <c r="N28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>50</v>
       </c>
@@ -1222,8 +1773,23 @@
       <c r="I29">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>34</v>
+      </c>
+      <c r="K29">
+        <v>33</v>
+      </c>
+      <c r="L29">
+        <v>33</v>
+      </c>
+      <c r="M29">
+        <v>34</v>
+      </c>
+      <c r="N29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>50</v>
       </c>
@@ -1248,8 +1814,23 @@
       <c r="I30">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>34</v>
+      </c>
+      <c r="K30">
+        <v>33</v>
+      </c>
+      <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>34</v>
+      </c>
+      <c r="N30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>50</v>
       </c>
@@ -1274,8 +1855,23 @@
       <c r="I31">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>33</v>
+      </c>
+      <c r="K31">
+        <v>33</v>
+      </c>
+      <c r="L31">
+        <v>33</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>50</v>
       </c>
@@ -1300,8 +1896,23 @@
       <c r="I32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>33</v>
+      </c>
+      <c r="K32">
+        <v>33</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>34</v>
+      </c>
+      <c r="N32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>50</v>
       </c>
@@ -1326,8 +1937,23 @@
       <c r="I33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>33</v>
+      </c>
+      <c r="L33">
+        <v>33</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>50</v>
       </c>
@@ -1352,8 +1978,23 @@
       <c r="I34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>34</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>50</v>
       </c>
@@ -1378,8 +2019,23 @@
       <c r="I35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>33</v>
+      </c>
+      <c r="K35">
+        <v>33</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>50</v>
       </c>
@@ -1404,8 +2060,23 @@
       <c r="I36">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>33</v>
+      </c>
+      <c r="K36">
+        <v>33</v>
+      </c>
+      <c r="L36">
+        <v>33</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50</v>
       </c>
@@ -1430,8 +2101,23 @@
       <c r="I37">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>33</v>
+      </c>
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>34</v>
+      </c>
+      <c r="N37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>50</v>
       </c>
@@ -1456,8 +2142,23 @@
       <c r="I38">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>33</v>
+      </c>
+      <c r="K38">
+        <v>33</v>
+      </c>
+      <c r="L38">
+        <v>33</v>
+      </c>
+      <c r="M38">
+        <v>34</v>
+      </c>
+      <c r="N38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>50</v>
       </c>
@@ -1482,8 +2183,23 @@
       <c r="I39">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>33</v>
+      </c>
+      <c r="K39">
+        <v>33</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>50</v>
       </c>
@@ -1508,8 +2224,23 @@
       <c r="I40">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>33</v>
+      </c>
+      <c r="K40">
+        <v>33</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>50</v>
       </c>
@@ -1534,8 +2265,23 @@
       <c r="I41">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>33</v>
+      </c>
+      <c r="K41">
+        <v>33</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>50</v>
       </c>
@@ -1560,8 +2306,23 @@
       <c r="I42">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>33</v>
+      </c>
+      <c r="K42">
+        <v>33</v>
+      </c>
+      <c r="L42">
+        <v>33</v>
+      </c>
+      <c r="M42">
+        <v>34</v>
+      </c>
+      <c r="N42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>50</v>
       </c>
@@ -1586,8 +2347,23 @@
       <c r="I43">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>33</v>
+      </c>
+      <c r="K43">
+        <v>33</v>
+      </c>
+      <c r="L43">
+        <v>33</v>
+      </c>
+      <c r="M43">
+        <v>34</v>
+      </c>
+      <c r="N43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>50</v>
       </c>
@@ -1612,8 +2388,23 @@
       <c r="I44">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>33</v>
+      </c>
+      <c r="K44">
+        <v>33</v>
+      </c>
+      <c r="L44">
+        <v>33</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>50</v>
       </c>
@@ -1638,8 +2429,23 @@
       <c r="I45">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>33</v>
+      </c>
+      <c r="K45">
+        <v>33</v>
+      </c>
+      <c r="L45">
+        <v>33</v>
+      </c>
+      <c r="M45">
+        <v>34</v>
+      </c>
+      <c r="N45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>50</v>
       </c>
@@ -1664,8 +2470,23 @@
       <c r="I46">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>33</v>
+      </c>
+      <c r="K46">
+        <v>33</v>
+      </c>
+      <c r="L46">
+        <v>33</v>
+      </c>
+      <c r="M46">
+        <v>34</v>
+      </c>
+      <c r="N46">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>50</v>
       </c>
@@ -1690,8 +2511,23 @@
       <c r="I47">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>33</v>
+      </c>
+      <c r="K47">
+        <v>33</v>
+      </c>
+      <c r="L47">
+        <v>33</v>
+      </c>
+      <c r="M47">
+        <v>34</v>
+      </c>
+      <c r="N47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>50</v>
       </c>
@@ -1716,8 +2552,23 @@
       <c r="I48">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>33</v>
+      </c>
+      <c r="K48">
+        <v>33</v>
+      </c>
+      <c r="L48">
+        <v>33</v>
+      </c>
+      <c r="M48">
+        <v>34</v>
+      </c>
+      <c r="N48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>50</v>
       </c>
@@ -1742,8 +2593,23 @@
       <c r="I49">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>33</v>
+      </c>
+      <c r="K49">
+        <v>32</v>
+      </c>
+      <c r="L49">
+        <v>32</v>
+      </c>
+      <c r="M49">
+        <v>34</v>
+      </c>
+      <c r="N49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>50</v>
       </c>
@@ -1768,8 +2634,23 @@
       <c r="I50">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>33</v>
+      </c>
+      <c r="K50">
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>33</v>
+      </c>
+      <c r="M50">
+        <v>34</v>
+      </c>
+      <c r="N50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50</v>
       </c>
@@ -1794,8 +2675,23 @@
       <c r="I51">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>33</v>
+      </c>
+      <c r="K51">
+        <v>33</v>
+      </c>
+      <c r="L51">
+        <v>33</v>
+      </c>
+      <c r="M51">
+        <v>34</v>
+      </c>
+      <c r="N51">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>50</v>
       </c>
@@ -1820,8 +2716,23 @@
       <c r="I52">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>34</v>
+      </c>
+      <c r="K52">
+        <v>33</v>
+      </c>
+      <c r="L52">
+        <v>33</v>
+      </c>
+      <c r="M52">
+        <v>34</v>
+      </c>
+      <c r="N52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -1846,8 +2757,23 @@
       <c r="I53">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>33</v>
+      </c>
+      <c r="K53">
+        <v>33</v>
+      </c>
+      <c r="L53">
+        <v>33</v>
+      </c>
+      <c r="M53">
+        <v>34</v>
+      </c>
+      <c r="N53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>50</v>
       </c>
@@ -1872,8 +2798,23 @@
       <c r="I54">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>33</v>
+      </c>
+      <c r="K54">
+        <v>33</v>
+      </c>
+      <c r="L54">
+        <v>33</v>
+      </c>
+      <c r="M54">
+        <v>34</v>
+      </c>
+      <c r="N54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>50</v>
       </c>
@@ -1898,8 +2839,23 @@
       <c r="I55">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>33</v>
+      </c>
+      <c r="K55">
+        <v>33</v>
+      </c>
+      <c r="L55">
+        <v>33</v>
+      </c>
+      <c r="M55">
+        <v>34</v>
+      </c>
+      <c r="N55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>50</v>
       </c>
@@ -1924,8 +2880,23 @@
       <c r="I56">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>33</v>
+      </c>
+      <c r="K56">
+        <v>33</v>
+      </c>
+      <c r="L56">
+        <v>33</v>
+      </c>
+      <c r="M56">
+        <v>34</v>
+      </c>
+      <c r="N56">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>50</v>
       </c>
@@ -1950,8 +2921,23 @@
       <c r="I57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>33</v>
+      </c>
+      <c r="K57">
+        <v>33</v>
+      </c>
+      <c r="L57">
+        <v>33</v>
+      </c>
+      <c r="M57">
+        <v>34</v>
+      </c>
+      <c r="N57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>50</v>
       </c>
@@ -1976,8 +2962,23 @@
       <c r="I58">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>34</v>
+      </c>
+      <c r="K58">
+        <v>33</v>
+      </c>
+      <c r="L58">
+        <v>33</v>
+      </c>
+      <c r="M58">
+        <v>34</v>
+      </c>
+      <c r="N58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>50</v>
       </c>
@@ -2002,8 +3003,23 @@
       <c r="I59">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>33</v>
+      </c>
+      <c r="K59">
+        <v>33</v>
+      </c>
+      <c r="L59">
+        <v>33</v>
+      </c>
+      <c r="M59">
+        <v>34</v>
+      </c>
+      <c r="N59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>50</v>
       </c>
@@ -2028,8 +3044,23 @@
       <c r="I60">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>33</v>
+      </c>
+      <c r="K60">
+        <v>33</v>
+      </c>
+      <c r="L60">
+        <v>33</v>
+      </c>
+      <c r="M60">
+        <v>34</v>
+      </c>
+      <c r="N60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>50</v>
       </c>
@@ -2054,8 +3085,23 @@
       <c r="I61">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>33</v>
+      </c>
+      <c r="K61">
+        <v>33</v>
+      </c>
+      <c r="L61">
+        <v>33</v>
+      </c>
+      <c r="M61">
+        <v>34</v>
+      </c>
+      <c r="N61">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>50</v>
       </c>
@@ -2080,8 +3126,23 @@
       <c r="I62">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>33</v>
+      </c>
+      <c r="K62">
+        <v>33</v>
+      </c>
+      <c r="L62">
+        <v>33</v>
+      </c>
+      <c r="M62">
+        <v>34</v>
+      </c>
+      <c r="N62">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>50</v>
       </c>
@@ -2106,8 +3167,23 @@
       <c r="I63">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>33</v>
+      </c>
+      <c r="K63">
+        <v>34</v>
+      </c>
+      <c r="L63">
+        <v>34</v>
+      </c>
+      <c r="M63">
+        <v>34</v>
+      </c>
+      <c r="N63">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>50</v>
       </c>
@@ -2132,8 +3208,23 @@
       <c r="I64">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>33</v>
+      </c>
+      <c r="K64">
+        <v>33</v>
+      </c>
+      <c r="L64">
+        <v>33</v>
+      </c>
+      <c r="M64">
+        <v>34</v>
+      </c>
+      <c r="N64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>50</v>
       </c>
@@ -2158,8 +3249,23 @@
       <c r="I65">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>33</v>
+      </c>
+      <c r="K65">
+        <v>33</v>
+      </c>
+      <c r="L65">
+        <v>33</v>
+      </c>
+      <c r="M65">
+        <v>34</v>
+      </c>
+      <c r="N65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>50</v>
       </c>
@@ -2184,8 +3290,23 @@
       <c r="I66">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>33</v>
+      </c>
+      <c r="K66">
+        <v>33</v>
+      </c>
+      <c r="L66">
+        <v>33</v>
+      </c>
+      <c r="M66">
+        <v>34</v>
+      </c>
+      <c r="N66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>50</v>
       </c>
@@ -2210,8 +3331,23 @@
       <c r="I67">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>33</v>
+      </c>
+      <c r="K67">
+        <v>33</v>
+      </c>
+      <c r="L67">
+        <v>33</v>
+      </c>
+      <c r="M67">
+        <v>34</v>
+      </c>
+      <c r="N67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>50</v>
       </c>
@@ -2236,8 +3372,23 @@
       <c r="I68">
         <v>54</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>33</v>
+      </c>
+      <c r="K68">
+        <v>33</v>
+      </c>
+      <c r="L68">
+        <v>33</v>
+      </c>
+      <c r="M68">
+        <v>34</v>
+      </c>
+      <c r="N68">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>50</v>
       </c>
@@ -2262,8 +3413,23 @@
       <c r="I69">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>33</v>
+      </c>
+      <c r="K69">
+        <v>34</v>
+      </c>
+      <c r="L69">
+        <v>34</v>
+      </c>
+      <c r="M69">
+        <v>34</v>
+      </c>
+      <c r="N69">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>50</v>
       </c>
@@ -2288,8 +3454,23 @@
       <c r="I70">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>34</v>
+      </c>
+      <c r="K70">
+        <v>34</v>
+      </c>
+      <c r="L70">
+        <v>34</v>
+      </c>
+      <c r="M70">
+        <v>34</v>
+      </c>
+      <c r="N70">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>50</v>
       </c>
@@ -2314,8 +3495,23 @@
       <c r="I71">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>33</v>
+      </c>
+      <c r="L71">
+        <v>33</v>
+      </c>
+      <c r="M71">
+        <v>34</v>
+      </c>
+      <c r="N71">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>50</v>
       </c>
@@ -2340,8 +3536,23 @@
       <c r="I72">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>34</v>
+      </c>
+      <c r="K72">
+        <v>33</v>
+      </c>
+      <c r="L72">
+        <v>33</v>
+      </c>
+      <c r="M72">
+        <v>34</v>
+      </c>
+      <c r="N72">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>50</v>
       </c>
@@ -2366,8 +3577,23 @@
       <c r="I73">
         <v>55</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>33</v>
+      </c>
+      <c r="L73">
+        <v>33</v>
+      </c>
+      <c r="M73">
+        <v>34</v>
+      </c>
+      <c r="N73">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>50</v>
       </c>
@@ -2392,8 +3618,23 @@
       <c r="I74">
         <v>55</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>34</v>
+      </c>
+      <c r="K74">
+        <v>33</v>
+      </c>
+      <c r="L74">
+        <v>33</v>
+      </c>
+      <c r="M74">
+        <v>34</v>
+      </c>
+      <c r="N74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>50</v>
       </c>
@@ -2418,8 +3659,23 @@
       <c r="I75">
         <v>55</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>33</v>
+      </c>
+      <c r="K75">
+        <v>33</v>
+      </c>
+      <c r="L75">
+        <v>33</v>
+      </c>
+      <c r="M75">
+        <v>34</v>
+      </c>
+      <c r="N75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>50</v>
       </c>
@@ -2444,8 +3700,23 @@
       <c r="I76">
         <v>55</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>33</v>
+      </c>
+      <c r="K76">
+        <v>33</v>
+      </c>
+      <c r="L76">
+        <v>33</v>
+      </c>
+      <c r="M76">
+        <v>34</v>
+      </c>
+      <c r="N76">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>50</v>
       </c>
@@ -2470,8 +3741,23 @@
       <c r="I77">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>35</v>
+      </c>
+      <c r="K77">
+        <v>33</v>
+      </c>
+      <c r="L77">
+        <v>33</v>
+      </c>
+      <c r="M77">
+        <v>34</v>
+      </c>
+      <c r="N77">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>50</v>
       </c>
@@ -2496,8 +3782,23 @@
       <c r="I78">
         <v>55</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>34</v>
+      </c>
+      <c r="K78">
+        <v>33</v>
+      </c>
+      <c r="L78">
+        <v>33</v>
+      </c>
+      <c r="M78">
+        <v>34</v>
+      </c>
+      <c r="N78">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>50</v>
       </c>
@@ -2522,8 +3823,23 @@
       <c r="I79">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>34</v>
+      </c>
+      <c r="K79">
+        <v>33</v>
+      </c>
+      <c r="L79">
+        <v>33</v>
+      </c>
+      <c r="M79">
+        <v>34</v>
+      </c>
+      <c r="N79">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>50</v>
       </c>
@@ -2548,8 +3864,23 @@
       <c r="I80">
         <v>55</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>34</v>
+      </c>
+      <c r="K80">
+        <v>33</v>
+      </c>
+      <c r="L80">
+        <v>33</v>
+      </c>
+      <c r="M80">
+        <v>34</v>
+      </c>
+      <c r="N80">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>50</v>
       </c>
@@ -2574,8 +3905,23 @@
       <c r="I81">
         <v>55</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>34</v>
+      </c>
+      <c r="K81">
+        <v>33</v>
+      </c>
+      <c r="L81">
+        <v>33</v>
+      </c>
+      <c r="M81">
+        <v>34</v>
+      </c>
+      <c r="N81">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>50</v>
       </c>
@@ -2600,8 +3946,23 @@
       <c r="I82">
         <v>55</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>34</v>
+      </c>
+      <c r="K82">
+        <v>33</v>
+      </c>
+      <c r="L82">
+        <v>33</v>
+      </c>
+      <c r="M82">
+        <v>34</v>
+      </c>
+      <c r="N82">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>50</v>
       </c>
@@ -2626,8 +3987,23 @@
       <c r="I83">
         <v>55</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>34</v>
+      </c>
+      <c r="K83">
+        <v>33</v>
+      </c>
+      <c r="L83">
+        <v>33</v>
+      </c>
+      <c r="M83">
+        <v>34</v>
+      </c>
+      <c r="N83">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>50</v>
       </c>
@@ -2652,8 +4028,23 @@
       <c r="I84">
         <v>55</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>34</v>
+      </c>
+      <c r="K84">
+        <v>33</v>
+      </c>
+      <c r="L84">
+        <v>33</v>
+      </c>
+      <c r="M84">
+        <v>34</v>
+      </c>
+      <c r="N84">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>50</v>
       </c>
@@ -2678,8 +4069,23 @@
       <c r="I85">
         <v>55</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>34</v>
+      </c>
+      <c r="K85">
+        <v>33</v>
+      </c>
+      <c r="L85">
+        <v>33</v>
+      </c>
+      <c r="M85">
+        <v>34</v>
+      </c>
+      <c r="N85">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>50</v>
       </c>
@@ -2704,8 +4110,23 @@
       <c r="I86">
         <v>55</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>34</v>
+      </c>
+      <c r="K86">
+        <v>33</v>
+      </c>
+      <c r="L86">
+        <v>33</v>
+      </c>
+      <c r="M86">
+        <v>34</v>
+      </c>
+      <c r="N86">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>50</v>
       </c>
@@ -2730,8 +4151,23 @@
       <c r="I87">
         <v>55</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>33</v>
+      </c>
+      <c r="K87">
+        <v>33</v>
+      </c>
+      <c r="L87">
+        <v>33</v>
+      </c>
+      <c r="M87">
+        <v>34</v>
+      </c>
+      <c r="N87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>50</v>
       </c>
@@ -2756,8 +4192,23 @@
       <c r="I88">
         <v>55</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>33</v>
+      </c>
+      <c r="K88">
+        <v>33</v>
+      </c>
+      <c r="L88">
+        <v>33</v>
+      </c>
+      <c r="M88">
+        <v>34</v>
+      </c>
+      <c r="N88">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>50</v>
       </c>
@@ -2782,8 +4233,23 @@
       <c r="I89">
         <v>54</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>34</v>
+      </c>
+      <c r="K89">
+        <v>33</v>
+      </c>
+      <c r="L89">
+        <v>33</v>
+      </c>
+      <c r="M89">
+        <v>34</v>
+      </c>
+      <c r="N89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>50</v>
       </c>
@@ -2808,8 +4274,23 @@
       <c r="I90">
         <v>54</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>34</v>
+      </c>
+      <c r="K90">
+        <v>33</v>
+      </c>
+      <c r="L90">
+        <v>33</v>
+      </c>
+      <c r="M90">
+        <v>34</v>
+      </c>
+      <c r="N90">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>50</v>
       </c>
@@ -2834,8 +4315,23 @@
       <c r="I91">
         <v>54</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>33</v>
+      </c>
+      <c r="K91">
+        <v>33</v>
+      </c>
+      <c r="L91">
+        <v>33</v>
+      </c>
+      <c r="M91">
+        <v>34</v>
+      </c>
+      <c r="N91">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>50</v>
       </c>
@@ -2860,8 +4356,23 @@
       <c r="I92">
         <v>54</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>34</v>
+      </c>
+      <c r="K92">
+        <v>33</v>
+      </c>
+      <c r="L92">
+        <v>33</v>
+      </c>
+      <c r="M92">
+        <v>34</v>
+      </c>
+      <c r="N92">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>50</v>
       </c>
@@ -2886,8 +4397,23 @@
       <c r="I93">
         <v>54</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>34</v>
+      </c>
+      <c r="K93">
+        <v>33</v>
+      </c>
+      <c r="L93">
+        <v>33</v>
+      </c>
+      <c r="M93">
+        <v>34</v>
+      </c>
+      <c r="N93">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>50</v>
       </c>
@@ -2912,8 +4438,23 @@
       <c r="I94">
         <v>54</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>34</v>
+      </c>
+      <c r="K94">
+        <v>33</v>
+      </c>
+      <c r="L94">
+        <v>33</v>
+      </c>
+      <c r="M94">
+        <v>34</v>
+      </c>
+      <c r="N94">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>50</v>
       </c>
@@ -2938,8 +4479,23 @@
       <c r="I95">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>34</v>
+      </c>
+      <c r="K95">
+        <v>33</v>
+      </c>
+      <c r="L95">
+        <v>33</v>
+      </c>
+      <c r="M95">
+        <v>34</v>
+      </c>
+      <c r="N95">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>50</v>
       </c>
@@ -2964,8 +4520,23 @@
       <c r="I96">
         <v>54</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>33</v>
+      </c>
+      <c r="K96">
+        <v>33</v>
+      </c>
+      <c r="L96">
+        <v>33</v>
+      </c>
+      <c r="M96">
+        <v>34</v>
+      </c>
+      <c r="N96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>50</v>
       </c>
@@ -2990,8 +4561,23 @@
       <c r="I97">
         <v>53</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>33</v>
+      </c>
+      <c r="K97">
+        <v>32</v>
+      </c>
+      <c r="L97">
+        <v>32</v>
+      </c>
+      <c r="M97">
+        <v>34</v>
+      </c>
+      <c r="N97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>50</v>
       </c>
@@ -3016,8 +4602,23 @@
       <c r="I98">
         <v>55</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>33</v>
+      </c>
+      <c r="K98">
+        <v>33</v>
+      </c>
+      <c r="L98">
+        <v>33</v>
+      </c>
+      <c r="M98">
+        <v>34</v>
+      </c>
+      <c r="N98">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>50</v>
       </c>
@@ -3042,8 +4643,23 @@
       <c r="I99">
         <v>55</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>33</v>
+      </c>
+      <c r="K99">
+        <v>33</v>
+      </c>
+      <c r="L99">
+        <v>33</v>
+      </c>
+      <c r="M99">
+        <v>34</v>
+      </c>
+      <c r="N99">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>50</v>
       </c>
@@ -3068,8 +4684,23 @@
       <c r="I100">
         <v>55</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>33</v>
+      </c>
+      <c r="K100">
+        <v>34</v>
+      </c>
+      <c r="L100">
+        <v>34</v>
+      </c>
+      <c r="M100">
+        <v>34</v>
+      </c>
+      <c r="N100">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>50</v>
       </c>
@@ -3094,8 +4725,23 @@
       <c r="I101">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>33</v>
+      </c>
+      <c r="K101">
+        <v>32</v>
+      </c>
+      <c r="L101">
+        <v>32</v>
+      </c>
+      <c r="M101">
+        <v>34</v>
+      </c>
+      <c r="N101">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>50</v>
       </c>
@@ -3120,8 +4766,23 @@
       <c r="I102">
         <v>55</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>33</v>
+      </c>
+      <c r="K102">
+        <v>33</v>
+      </c>
+      <c r="L102">
+        <v>33</v>
+      </c>
+      <c r="M102">
+        <v>34</v>
+      </c>
+      <c r="N102">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>50</v>
       </c>
@@ -3146,8 +4807,23 @@
       <c r="I103">
         <v>55</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>33</v>
+      </c>
+      <c r="K103">
+        <v>33</v>
+      </c>
+      <c r="L103">
+        <v>33</v>
+      </c>
+      <c r="M103">
+        <v>34</v>
+      </c>
+      <c r="N103">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>50</v>
       </c>
@@ -3172,8 +4848,23 @@
       <c r="I104">
         <v>55</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>33</v>
+      </c>
+      <c r="K104">
+        <v>33</v>
+      </c>
+      <c r="L104">
+        <v>33</v>
+      </c>
+      <c r="M104">
+        <v>34</v>
+      </c>
+      <c r="N104">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>50</v>
       </c>
@@ -3198,8 +4889,23 @@
       <c r="I105">
         <v>55</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>33</v>
+      </c>
+      <c r="K105">
+        <v>33</v>
+      </c>
+      <c r="L105">
+        <v>33</v>
+      </c>
+      <c r="M105">
+        <v>34</v>
+      </c>
+      <c r="N105">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>50</v>
       </c>
@@ -3224,8 +4930,23 @@
       <c r="I106">
         <v>55</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>33</v>
+      </c>
+      <c r="K106">
+        <v>33</v>
+      </c>
+      <c r="L106">
+        <v>33</v>
+      </c>
+      <c r="M106">
+        <v>34</v>
+      </c>
+      <c r="N106">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>50</v>
       </c>
@@ -3250,8 +4971,23 @@
       <c r="I107">
         <v>55</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>33</v>
+      </c>
+      <c r="K107">
+        <v>33</v>
+      </c>
+      <c r="L107">
+        <v>33</v>
+      </c>
+      <c r="M107">
+        <v>34</v>
+      </c>
+      <c r="N107">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>50</v>
       </c>
@@ -3276,8 +5012,23 @@
       <c r="I108">
         <v>55</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>33</v>
+      </c>
+      <c r="K108">
+        <v>33</v>
+      </c>
+      <c r="L108">
+        <v>33</v>
+      </c>
+      <c r="M108">
+        <v>34</v>
+      </c>
+      <c r="N108">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>50</v>
       </c>
@@ -3302,8 +5053,23 @@
       <c r="I109">
         <v>55</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>33</v>
+      </c>
+      <c r="K109">
+        <v>33</v>
+      </c>
+      <c r="L109">
+        <v>33</v>
+      </c>
+      <c r="M109">
+        <v>34</v>
+      </c>
+      <c r="N109">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>50</v>
       </c>
@@ -3328,8 +5094,23 @@
       <c r="I110">
         <v>56</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>33</v>
+      </c>
+      <c r="K110">
+        <v>33</v>
+      </c>
+      <c r="L110">
+        <v>33</v>
+      </c>
+      <c r="M110">
+        <v>34</v>
+      </c>
+      <c r="N110">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>50</v>
       </c>
@@ -3354,8 +5135,23 @@
       <c r="I111">
         <v>56</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>33</v>
+      </c>
+      <c r="K111">
+        <v>33</v>
+      </c>
+      <c r="L111">
+        <v>33</v>
+      </c>
+      <c r="M111">
+        <v>34</v>
+      </c>
+      <c r="N111">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>50</v>
       </c>
@@ -3380,8 +5176,23 @@
       <c r="I112">
         <v>55</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>33</v>
+      </c>
+      <c r="K112">
+        <v>33</v>
+      </c>
+      <c r="L112">
+        <v>33</v>
+      </c>
+      <c r="M112">
+        <v>34</v>
+      </c>
+      <c r="N112">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>50</v>
       </c>
@@ -3406,8 +5217,23 @@
       <c r="I113">
         <v>55</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>33</v>
+      </c>
+      <c r="K113">
+        <v>33</v>
+      </c>
+      <c r="L113">
+        <v>33</v>
+      </c>
+      <c r="M113">
+        <v>34</v>
+      </c>
+      <c r="N113">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>50</v>
       </c>
@@ -3432,8 +5258,23 @@
       <c r="I114">
         <v>55</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>33</v>
+      </c>
+      <c r="K114">
+        <v>33</v>
+      </c>
+      <c r="L114">
+        <v>33</v>
+      </c>
+      <c r="M114">
+        <v>34</v>
+      </c>
+      <c r="N114">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>50</v>
       </c>
@@ -3458,8 +5299,23 @@
       <c r="I115">
         <v>55</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>33</v>
+      </c>
+      <c r="K115">
+        <v>33</v>
+      </c>
+      <c r="L115">
+        <v>33</v>
+      </c>
+      <c r="M115">
+        <v>34</v>
+      </c>
+      <c r="N115">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>50</v>
       </c>
@@ -3484,8 +5340,23 @@
       <c r="I116">
         <v>56</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>33</v>
+      </c>
+      <c r="K116">
+        <v>33</v>
+      </c>
+      <c r="L116">
+        <v>33</v>
+      </c>
+      <c r="M116">
+        <v>34</v>
+      </c>
+      <c r="N116">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>50</v>
       </c>
@@ -3510,8 +5381,23 @@
       <c r="I117">
         <v>55</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>34</v>
+      </c>
+      <c r="K117">
+        <v>33</v>
+      </c>
+      <c r="L117">
+        <v>33</v>
+      </c>
+      <c r="M117">
+        <v>34</v>
+      </c>
+      <c r="N117">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>50</v>
       </c>
@@ -3536,8 +5422,23 @@
       <c r="I118">
         <v>55</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>33</v>
+      </c>
+      <c r="K118">
+        <v>33</v>
+      </c>
+      <c r="L118">
+        <v>33</v>
+      </c>
+      <c r="M118">
+        <v>34</v>
+      </c>
+      <c r="N118">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>50</v>
       </c>
@@ -3562,8 +5463,23 @@
       <c r="I119">
         <v>55</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>34</v>
+      </c>
+      <c r="K119">
+        <v>33</v>
+      </c>
+      <c r="L119">
+        <v>33</v>
+      </c>
+      <c r="M119">
+        <v>34</v>
+      </c>
+      <c r="N119">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>50</v>
       </c>
@@ -3588,8 +5504,23 @@
       <c r="I120">
         <v>55</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>33</v>
+      </c>
+      <c r="K120">
+        <v>33</v>
+      </c>
+      <c r="L120">
+        <v>33</v>
+      </c>
+      <c r="M120">
+        <v>34</v>
+      </c>
+      <c r="N120">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>50</v>
       </c>
@@ -3614,8 +5545,23 @@
       <c r="I121">
         <v>55</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>34</v>
+      </c>
+      <c r="K121">
+        <v>33</v>
+      </c>
+      <c r="L121">
+        <v>33</v>
+      </c>
+      <c r="M121">
+        <v>34</v>
+      </c>
+      <c r="N121">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>50</v>
       </c>
@@ -3640,8 +5586,23 @@
       <c r="I122">
         <v>55</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>33</v>
+      </c>
+      <c r="K122">
+        <v>33</v>
+      </c>
+      <c r="L122">
+        <v>33</v>
+      </c>
+      <c r="M122">
+        <v>34</v>
+      </c>
+      <c r="N122">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>50</v>
       </c>
@@ -3666,8 +5627,23 @@
       <c r="I123">
         <v>55</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>34</v>
+      </c>
+      <c r="K123">
+        <v>33</v>
+      </c>
+      <c r="L123">
+        <v>33</v>
+      </c>
+      <c r="M123">
+        <v>34</v>
+      </c>
+      <c r="N123">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>50</v>
       </c>
@@ -3692,8 +5668,23 @@
       <c r="I124">
         <v>55</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>34</v>
+      </c>
+      <c r="K124">
+        <v>33</v>
+      </c>
+      <c r="L124">
+        <v>33</v>
+      </c>
+      <c r="M124">
+        <v>34</v>
+      </c>
+      <c r="N124">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>50</v>
       </c>
@@ -3718,8 +5709,23 @@
       <c r="I125">
         <v>55</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>34</v>
+      </c>
+      <c r="K125">
+        <v>33</v>
+      </c>
+      <c r="L125">
+        <v>33</v>
+      </c>
+      <c r="M125">
+        <v>34</v>
+      </c>
+      <c r="N125">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>50</v>
       </c>
@@ -3744,8 +5750,23 @@
       <c r="I126">
         <v>55</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>34</v>
+      </c>
+      <c r="K126">
+        <v>33</v>
+      </c>
+      <c r="L126">
+        <v>33</v>
+      </c>
+      <c r="M126">
+        <v>34</v>
+      </c>
+      <c r="N126">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>50</v>
       </c>
@@ -3770,8 +5791,23 @@
       <c r="I127">
         <v>55</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>34</v>
+      </c>
+      <c r="K127">
+        <v>33</v>
+      </c>
+      <c r="L127">
+        <v>33</v>
+      </c>
+      <c r="M127">
+        <v>34</v>
+      </c>
+      <c r="N127">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>50</v>
       </c>
@@ -3796,8 +5832,23 @@
       <c r="I128">
         <v>55</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>35</v>
+      </c>
+      <c r="K128">
+        <v>33</v>
+      </c>
+      <c r="L128">
+        <v>33</v>
+      </c>
+      <c r="M128">
+        <v>34</v>
+      </c>
+      <c r="N128">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>50</v>
       </c>
@@ -3822,8 +5873,23 @@
       <c r="I129">
         <v>56</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>34</v>
+      </c>
+      <c r="K129">
+        <v>33</v>
+      </c>
+      <c r="L129">
+        <v>33</v>
+      </c>
+      <c r="M129">
+        <v>34</v>
+      </c>
+      <c r="N129">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>50</v>
       </c>
@@ -3848,8 +5914,23 @@
       <c r="I130">
         <v>55</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>34</v>
+      </c>
+      <c r="K130">
+        <v>33</v>
+      </c>
+      <c r="L130">
+        <v>33</v>
+      </c>
+      <c r="M130">
+        <v>34</v>
+      </c>
+      <c r="N130">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>50</v>
       </c>
@@ -3874,8 +5955,23 @@
       <c r="I131">
         <v>55</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>34</v>
+      </c>
+      <c r="K131">
+        <v>33</v>
+      </c>
+      <c r="L131">
+        <v>33</v>
+      </c>
+      <c r="M131">
+        <v>34</v>
+      </c>
+      <c r="N131">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>50</v>
       </c>
@@ -3900,8 +5996,23 @@
       <c r="I132">
         <v>55</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>34</v>
+      </c>
+      <c r="K132">
+        <v>34</v>
+      </c>
+      <c r="L132">
+        <v>34</v>
+      </c>
+      <c r="M132">
+        <v>34</v>
+      </c>
+      <c r="N132">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>50</v>
       </c>
@@ -3926,8 +6037,23 @@
       <c r="I133">
         <v>55</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>34</v>
+      </c>
+      <c r="K133">
+        <v>33</v>
+      </c>
+      <c r="L133">
+        <v>33</v>
+      </c>
+      <c r="M133">
+        <v>34</v>
+      </c>
+      <c r="N133">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>50</v>
       </c>
@@ -3952,8 +6078,23 @@
       <c r="I134">
         <v>55</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>34</v>
+      </c>
+      <c r="K134">
+        <v>33</v>
+      </c>
+      <c r="L134">
+        <v>33</v>
+      </c>
+      <c r="M134">
+        <v>34</v>
+      </c>
+      <c r="N134">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>50</v>
       </c>
@@ -3978,8 +6119,23 @@
       <c r="I135">
         <v>55</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>34</v>
+      </c>
+      <c r="K135">
+        <v>33</v>
+      </c>
+      <c r="L135">
+        <v>33</v>
+      </c>
+      <c r="M135">
+        <v>34</v>
+      </c>
+      <c r="N135">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>50</v>
       </c>
@@ -4004,8 +6160,23 @@
       <c r="I136">
         <v>55</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>34</v>
+      </c>
+      <c r="K136">
+        <v>33</v>
+      </c>
+      <c r="L136">
+        <v>33</v>
+      </c>
+      <c r="M136">
+        <v>34</v>
+      </c>
+      <c r="N136">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>50</v>
       </c>
@@ -4030,8 +6201,23 @@
       <c r="I137">
         <v>55</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <v>34</v>
+      </c>
+      <c r="K137">
+        <v>33</v>
+      </c>
+      <c r="L137">
+        <v>33</v>
+      </c>
+      <c r="M137">
+        <v>34</v>
+      </c>
+      <c r="N137">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>50</v>
       </c>
@@ -4056,8 +6242,23 @@
       <c r="I138">
         <v>55</v>
       </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>34</v>
+      </c>
+      <c r="K138">
+        <v>33</v>
+      </c>
+      <c r="L138">
+        <v>33</v>
+      </c>
+      <c r="M138">
+        <v>34</v>
+      </c>
+      <c r="N138">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>50</v>
       </c>
@@ -4082,8 +6283,23 @@
       <c r="I139">
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <v>34</v>
+      </c>
+      <c r="K139">
+        <v>33</v>
+      </c>
+      <c r="L139">
+        <v>33</v>
+      </c>
+      <c r="M139">
+        <v>34</v>
+      </c>
+      <c r="N139">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>50</v>
       </c>
@@ -4108,8 +6324,23 @@
       <c r="I140">
         <v>55</v>
       </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>34</v>
+      </c>
+      <c r="K140">
+        <v>33</v>
+      </c>
+      <c r="L140">
+        <v>33</v>
+      </c>
+      <c r="M140">
+        <v>34</v>
+      </c>
+      <c r="N140">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>50</v>
       </c>
@@ -4134,8 +6365,23 @@
       <c r="I141">
         <v>55</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <v>34</v>
+      </c>
+      <c r="K141">
+        <v>33</v>
+      </c>
+      <c r="L141">
+        <v>33</v>
+      </c>
+      <c r="M141">
+        <v>34</v>
+      </c>
+      <c r="N141">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>50</v>
       </c>
@@ -4160,8 +6406,23 @@
       <c r="I142">
         <v>55</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>33</v>
+      </c>
+      <c r="K142">
+        <v>33</v>
+      </c>
+      <c r="L142">
+        <v>33</v>
+      </c>
+      <c r="M142">
+        <v>34</v>
+      </c>
+      <c r="N142">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>50</v>
       </c>
@@ -4186,8 +6447,23 @@
       <c r="I143">
         <v>55</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <v>34</v>
+      </c>
+      <c r="K143">
+        <v>33</v>
+      </c>
+      <c r="L143">
+        <v>33</v>
+      </c>
+      <c r="M143">
+        <v>34</v>
+      </c>
+      <c r="N143">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>50</v>
       </c>
@@ -4212,8 +6488,23 @@
       <c r="I144">
         <v>56</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>33</v>
+      </c>
+      <c r="K144">
+        <v>33</v>
+      </c>
+      <c r="L144">
+        <v>33</v>
+      </c>
+      <c r="M144">
+        <v>34</v>
+      </c>
+      <c r="N144">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>50</v>
       </c>
@@ -4238,8 +6529,23 @@
       <c r="I145">
         <v>55</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>34</v>
+      </c>
+      <c r="K145">
+        <v>33</v>
+      </c>
+      <c r="L145">
+        <v>33</v>
+      </c>
+      <c r="M145">
+        <v>34</v>
+      </c>
+      <c r="N145">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>50</v>
       </c>
@@ -4264,8 +6570,23 @@
       <c r="I146">
         <v>56</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>33</v>
+      </c>
+      <c r="K146">
+        <v>33</v>
+      </c>
+      <c r="L146">
+        <v>33</v>
+      </c>
+      <c r="M146">
+        <v>34</v>
+      </c>
+      <c r="N146">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>50</v>
       </c>
@@ -4290,8 +6611,23 @@
       <c r="I147">
         <v>55</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>33</v>
+      </c>
+      <c r="K147">
+        <v>33</v>
+      </c>
+      <c r="L147">
+        <v>33</v>
+      </c>
+      <c r="M147">
+        <v>34</v>
+      </c>
+      <c r="N147">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>50</v>
       </c>
@@ -4316,8 +6652,23 @@
       <c r="I148">
         <v>55</v>
       </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>33</v>
+      </c>
+      <c r="K148">
+        <v>33</v>
+      </c>
+      <c r="L148">
+        <v>33</v>
+      </c>
+      <c r="M148">
+        <v>34</v>
+      </c>
+      <c r="N148">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>50</v>
       </c>
@@ -4342,8 +6693,23 @@
       <c r="I149">
         <v>55</v>
       </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>33</v>
+      </c>
+      <c r="K149">
+        <v>33</v>
+      </c>
+      <c r="L149">
+        <v>33</v>
+      </c>
+      <c r="M149">
+        <v>34</v>
+      </c>
+      <c r="N149">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>50</v>
       </c>
@@ -4368,8 +6734,23 @@
       <c r="I150">
         <v>55</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <v>33</v>
+      </c>
+      <c r="K150">
+        <v>33</v>
+      </c>
+      <c r="L150">
+        <v>33</v>
+      </c>
+      <c r="M150">
+        <v>34</v>
+      </c>
+      <c r="N150">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>50</v>
       </c>
@@ -4394,8 +6775,23 @@
       <c r="I151">
         <v>55</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>32</v>
+      </c>
+      <c r="K151">
+        <v>33</v>
+      </c>
+      <c r="L151">
+        <v>33</v>
+      </c>
+      <c r="M151">
+        <v>34</v>
+      </c>
+      <c r="N151">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>50</v>
       </c>
@@ -4420,8 +6816,23 @@
       <c r="I152">
         <v>55</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>33</v>
+      </c>
+      <c r="K152">
+        <v>33</v>
+      </c>
+      <c r="L152">
+        <v>33</v>
+      </c>
+      <c r="M152">
+        <v>34</v>
+      </c>
+      <c r="N152">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>50</v>
       </c>
@@ -4446,8 +6857,23 @@
       <c r="I153">
         <v>55</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J153">
+        <v>33</v>
+      </c>
+      <c r="K153">
+        <v>33</v>
+      </c>
+      <c r="L153">
+        <v>33</v>
+      </c>
+      <c r="M153">
+        <v>34</v>
+      </c>
+      <c r="N153">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>50</v>
       </c>
@@ -4472,8 +6898,23 @@
       <c r="I154">
         <v>55</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <v>33</v>
+      </c>
+      <c r="K154">
+        <v>33</v>
+      </c>
+      <c r="L154">
+        <v>33</v>
+      </c>
+      <c r="M154">
+        <v>34</v>
+      </c>
+      <c r="N154">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>50</v>
       </c>
@@ -4498,8 +6939,23 @@
       <c r="I155">
         <v>55</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>33</v>
+      </c>
+      <c r="K155">
+        <v>33</v>
+      </c>
+      <c r="L155">
+        <v>33</v>
+      </c>
+      <c r="M155">
+        <v>34</v>
+      </c>
+      <c r="N155">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>50</v>
       </c>
@@ -4524,8 +6980,23 @@
       <c r="I156">
         <v>55</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <v>33</v>
+      </c>
+      <c r="K156">
+        <v>33</v>
+      </c>
+      <c r="L156">
+        <v>33</v>
+      </c>
+      <c r="M156">
+        <v>34</v>
+      </c>
+      <c r="N156">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>50</v>
       </c>
@@ -4550,8 +7021,23 @@
       <c r="I157">
         <v>55</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <v>33</v>
+      </c>
+      <c r="K157">
+        <v>33</v>
+      </c>
+      <c r="L157">
+        <v>33</v>
+      </c>
+      <c r="M157">
+        <v>34</v>
+      </c>
+      <c r="N157">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>50</v>
       </c>
@@ -4576,8 +7062,23 @@
       <c r="I158">
         <v>55</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <v>33</v>
+      </c>
+      <c r="K158">
+        <v>33</v>
+      </c>
+      <c r="L158">
+        <v>33</v>
+      </c>
+      <c r="M158">
+        <v>34</v>
+      </c>
+      <c r="N158">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>50</v>
       </c>
@@ -4602,8 +7103,23 @@
       <c r="I159">
         <v>55</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <v>33</v>
+      </c>
+      <c r="K159">
+        <v>33</v>
+      </c>
+      <c r="L159">
+        <v>33</v>
+      </c>
+      <c r="M159">
+        <v>34</v>
+      </c>
+      <c r="N159">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>50</v>
       </c>
@@ -4628,8 +7144,23 @@
       <c r="I160">
         <v>55</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>33</v>
+      </c>
+      <c r="K160">
+        <v>33</v>
+      </c>
+      <c r="L160">
+        <v>33</v>
+      </c>
+      <c r="M160">
+        <v>34</v>
+      </c>
+      <c r="N160">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>50</v>
       </c>
@@ -4654,8 +7185,23 @@
       <c r="I161">
         <v>55</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J161">
+        <v>33</v>
+      </c>
+      <c r="K161">
+        <v>32</v>
+      </c>
+      <c r="L161">
+        <v>32</v>
+      </c>
+      <c r="M161">
+        <v>34</v>
+      </c>
+      <c r="N161">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>50</v>
       </c>
@@ -4680,8 +7226,23 @@
       <c r="I162">
         <v>55</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J162">
+        <v>32</v>
+      </c>
+      <c r="K162">
+        <v>33</v>
+      </c>
+      <c r="L162">
+        <v>33</v>
+      </c>
+      <c r="M162">
+        <v>34</v>
+      </c>
+      <c r="N162">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>50</v>
       </c>
@@ -4706,8 +7267,23 @@
       <c r="I163">
         <v>56</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J163">
+        <v>33</v>
+      </c>
+      <c r="K163">
+        <v>33</v>
+      </c>
+      <c r="L163">
+        <v>33</v>
+      </c>
+      <c r="M163">
+        <v>34</v>
+      </c>
+      <c r="N163">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>50</v>
       </c>
@@ -4732,8 +7308,23 @@
       <c r="I164">
         <v>55</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <v>33</v>
+      </c>
+      <c r="K164">
+        <v>34</v>
+      </c>
+      <c r="L164">
+        <v>34</v>
+      </c>
+      <c r="M164">
+        <v>34</v>
+      </c>
+      <c r="N164">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>50</v>
       </c>
@@ -4758,8 +7349,23 @@
       <c r="I165">
         <v>55</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J165">
+        <v>33</v>
+      </c>
+      <c r="K165">
+        <v>33</v>
+      </c>
+      <c r="L165">
+        <v>33</v>
+      </c>
+      <c r="M165">
+        <v>34</v>
+      </c>
+      <c r="N165">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>50</v>
       </c>
@@ -4784,8 +7390,23 @@
       <c r="I166">
         <v>55</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <v>33</v>
+      </c>
+      <c r="K166">
+        <v>33</v>
+      </c>
+      <c r="L166">
+        <v>33</v>
+      </c>
+      <c r="M166">
+        <v>34</v>
+      </c>
+      <c r="N166">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>50</v>
       </c>
@@ -4810,8 +7431,23 @@
       <c r="I167">
         <v>55</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <v>33</v>
+      </c>
+      <c r="K167">
+        <v>33</v>
+      </c>
+      <c r="L167">
+        <v>33</v>
+      </c>
+      <c r="M167">
+        <v>34</v>
+      </c>
+      <c r="N167">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>50</v>
       </c>
@@ -4836,8 +7472,23 @@
       <c r="I168">
         <v>55</v>
       </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <v>34</v>
+      </c>
+      <c r="K168">
+        <v>33</v>
+      </c>
+      <c r="L168">
+        <v>33</v>
+      </c>
+      <c r="M168">
+        <v>34</v>
+      </c>
+      <c r="N168">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>50</v>
       </c>
@@ -4862,8 +7513,23 @@
       <c r="I169">
         <v>55</v>
       </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <v>33</v>
+      </c>
+      <c r="K169">
+        <v>34</v>
+      </c>
+      <c r="L169">
+        <v>34</v>
+      </c>
+      <c r="M169">
+        <v>34</v>
+      </c>
+      <c r="N169">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>50</v>
       </c>
@@ -4888,8 +7554,23 @@
       <c r="I170">
         <v>55</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>33</v>
+      </c>
+      <c r="K170">
+        <v>34</v>
+      </c>
+      <c r="L170">
+        <v>34</v>
+      </c>
+      <c r="M170">
+        <v>34</v>
+      </c>
+      <c r="N170">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>50</v>
       </c>
@@ -4914,8 +7595,23 @@
       <c r="I171">
         <v>56</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <v>33</v>
+      </c>
+      <c r="K171">
+        <v>34</v>
+      </c>
+      <c r="L171">
+        <v>34</v>
+      </c>
+      <c r="M171">
+        <v>34</v>
+      </c>
+      <c r="N171">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>50</v>
       </c>
@@ -4940,8 +7636,23 @@
       <c r="I172">
         <v>55</v>
       </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <v>34</v>
+      </c>
+      <c r="K172">
+        <v>34</v>
+      </c>
+      <c r="L172">
+        <v>34</v>
+      </c>
+      <c r="M172">
+        <v>34</v>
+      </c>
+      <c r="N172">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>50</v>
       </c>
@@ -4966,8 +7677,23 @@
       <c r="I173">
         <v>55</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J173">
+        <v>33</v>
+      </c>
+      <c r="K173">
+        <v>34</v>
+      </c>
+      <c r="L173">
+        <v>34</v>
+      </c>
+      <c r="M173">
+        <v>34</v>
+      </c>
+      <c r="N173">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>50</v>
       </c>
@@ -4992,8 +7718,23 @@
       <c r="I174">
         <v>55</v>
       </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <v>33</v>
+      </c>
+      <c r="K174">
+        <v>34</v>
+      </c>
+      <c r="L174">
+        <v>34</v>
+      </c>
+      <c r="M174">
+        <v>34</v>
+      </c>
+      <c r="N174">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>50</v>
       </c>
@@ -5018,8 +7759,23 @@
       <c r="I175">
         <v>55</v>
       </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J175">
+        <v>33</v>
+      </c>
+      <c r="K175">
+        <v>34</v>
+      </c>
+      <c r="L175">
+        <v>34</v>
+      </c>
+      <c r="M175">
+        <v>34</v>
+      </c>
+      <c r="N175">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>50</v>
       </c>
@@ -5044,8 +7800,23 @@
       <c r="I176">
         <v>55</v>
       </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <v>34</v>
+      </c>
+      <c r="K176">
+        <v>33</v>
+      </c>
+      <c r="L176">
+        <v>33</v>
+      </c>
+      <c r="M176">
+        <v>34</v>
+      </c>
+      <c r="N176">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>50</v>
       </c>
@@ -5070,8 +7841,23 @@
       <c r="I177">
         <v>55</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <v>34</v>
+      </c>
+      <c r="K177">
+        <v>33</v>
+      </c>
+      <c r="L177">
+        <v>33</v>
+      </c>
+      <c r="M177">
+        <v>34</v>
+      </c>
+      <c r="N177">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>50</v>
       </c>
@@ -5096,8 +7882,23 @@
       <c r="I178">
         <v>55</v>
       </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J178">
+        <v>34</v>
+      </c>
+      <c r="K178">
+        <v>33</v>
+      </c>
+      <c r="L178">
+        <v>33</v>
+      </c>
+      <c r="M178">
+        <v>34</v>
+      </c>
+      <c r="N178">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>50</v>
       </c>
@@ -5122,8 +7923,23 @@
       <c r="I179">
         <v>55</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <v>34</v>
+      </c>
+      <c r="K179">
+        <v>33</v>
+      </c>
+      <c r="L179">
+        <v>33</v>
+      </c>
+      <c r="M179">
+        <v>34</v>
+      </c>
+      <c r="N179">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>50</v>
       </c>
@@ -5148,8 +7964,23 @@
       <c r="I180">
         <v>55</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <v>34</v>
+      </c>
+      <c r="K180">
+        <v>33</v>
+      </c>
+      <c r="L180">
+        <v>33</v>
+      </c>
+      <c r="M180">
+        <v>34</v>
+      </c>
+      <c r="N180">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>50</v>
       </c>
@@ -5174,8 +8005,23 @@
       <c r="I181">
         <v>51</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>35</v>
+      </c>
+      <c r="K181">
+        <v>33</v>
+      </c>
+      <c r="L181">
+        <v>33</v>
+      </c>
+      <c r="M181">
+        <v>34</v>
+      </c>
+      <c r="N181">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>50</v>
       </c>
@@ -5200,8 +8046,23 @@
       <c r="I182">
         <v>53</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>35</v>
+      </c>
+      <c r="K182">
+        <v>33</v>
+      </c>
+      <c r="L182">
+        <v>33</v>
+      </c>
+      <c r="M182">
+        <v>34</v>
+      </c>
+      <c r="N182">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>50</v>
       </c>
@@ -5226,8 +8087,23 @@
       <c r="I183">
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J183">
+        <v>35</v>
+      </c>
+      <c r="K183">
+        <v>33</v>
+      </c>
+      <c r="L183">
+        <v>33</v>
+      </c>
+      <c r="M183">
+        <v>34</v>
+      </c>
+      <c r="N183">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>50</v>
       </c>
@@ -5252,8 +8128,23 @@
       <c r="I184">
         <v>50</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <v>35</v>
+      </c>
+      <c r="K184">
+        <v>33</v>
+      </c>
+      <c r="L184">
+        <v>33</v>
+      </c>
+      <c r="M184">
+        <v>34</v>
+      </c>
+      <c r="N184">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>50</v>
       </c>
@@ -5278,8 +8169,23 @@
       <c r="I185">
         <v>50</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J185">
+        <v>35</v>
+      </c>
+      <c r="K185">
+        <v>33</v>
+      </c>
+      <c r="L185">
+        <v>33</v>
+      </c>
+      <c r="M185">
+        <v>34</v>
+      </c>
+      <c r="N185">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>50</v>
       </c>
@@ -5304,8 +8210,23 @@
       <c r="I186">
         <v>51</v>
       </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>34</v>
+      </c>
+      <c r="K186">
+        <v>34</v>
+      </c>
+      <c r="L186">
+        <v>34</v>
+      </c>
+      <c r="M186">
+        <v>34</v>
+      </c>
+      <c r="N186">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>50</v>
       </c>
@@ -5330,8 +8251,23 @@
       <c r="I187">
         <v>51</v>
       </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <v>34</v>
+      </c>
+      <c r="K187">
+        <v>33</v>
+      </c>
+      <c r="L187">
+        <v>33</v>
+      </c>
+      <c r="M187">
+        <v>34</v>
+      </c>
+      <c r="N187">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>50</v>
       </c>
@@ -5356,8 +8292,23 @@
       <c r="I188">
         <v>51</v>
       </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>34</v>
+      </c>
+      <c r="K188">
+        <v>33</v>
+      </c>
+      <c r="L188">
+        <v>33</v>
+      </c>
+      <c r="M188">
+        <v>34</v>
+      </c>
+      <c r="N188">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>50</v>
       </c>
@@ -5382,8 +8333,23 @@
       <c r="I189">
         <v>56</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J189">
+        <v>33</v>
+      </c>
+      <c r="K189">
+        <v>33</v>
+      </c>
+      <c r="L189">
+        <v>33</v>
+      </c>
+      <c r="M189">
+        <v>34</v>
+      </c>
+      <c r="N189">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>50</v>
       </c>
@@ -5408,8 +8374,23 @@
       <c r="I190">
         <v>56</v>
       </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <v>34</v>
+      </c>
+      <c r="K190">
+        <v>33</v>
+      </c>
+      <c r="L190">
+        <v>33</v>
+      </c>
+      <c r="M190">
+        <v>34</v>
+      </c>
+      <c r="N190">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>50</v>
       </c>
@@ -5434,8 +8415,23 @@
       <c r="I191">
         <v>56</v>
       </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <v>34</v>
+      </c>
+      <c r="K191">
+        <v>33</v>
+      </c>
+      <c r="L191">
+        <v>33</v>
+      </c>
+      <c r="M191">
+        <v>34</v>
+      </c>
+      <c r="N191">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>50</v>
       </c>
@@ -5460,8 +8456,23 @@
       <c r="I192">
         <v>56</v>
       </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <v>34</v>
+      </c>
+      <c r="K192">
+        <v>33</v>
+      </c>
+      <c r="L192">
+        <v>33</v>
+      </c>
+      <c r="M192">
+        <v>34</v>
+      </c>
+      <c r="N192">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>50</v>
       </c>
@@ -5486,8 +8497,23 @@
       <c r="I193">
         <v>55</v>
       </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J193">
+        <v>33</v>
+      </c>
+      <c r="K193">
+        <v>33</v>
+      </c>
+      <c r="L193">
+        <v>33</v>
+      </c>
+      <c r="M193">
+        <v>34</v>
+      </c>
+      <c r="N193">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>50</v>
       </c>
@@ -5512,8 +8538,23 @@
       <c r="I194">
         <v>56</v>
       </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <v>33</v>
+      </c>
+      <c r="K194">
+        <v>33</v>
+      </c>
+      <c r="L194">
+        <v>33</v>
+      </c>
+      <c r="M194">
+        <v>34</v>
+      </c>
+      <c r="N194">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>50</v>
       </c>
@@ -5538,8 +8579,23 @@
       <c r="I195">
         <v>55</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J195">
+        <v>33</v>
+      </c>
+      <c r="K195">
+        <v>33</v>
+      </c>
+      <c r="L195">
+        <v>33</v>
+      </c>
+      <c r="M195">
+        <v>34</v>
+      </c>
+      <c r="N195">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>50</v>
       </c>
@@ -5564,8 +8620,23 @@
       <c r="I196">
         <v>55</v>
       </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J196">
+        <v>33</v>
+      </c>
+      <c r="K196">
+        <v>33</v>
+      </c>
+      <c r="L196">
+        <v>33</v>
+      </c>
+      <c r="M196">
+        <v>34</v>
+      </c>
+      <c r="N196">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>50</v>
       </c>
@@ -5590,8 +8661,23 @@
       <c r="I197">
         <v>55</v>
       </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J197">
+        <v>33</v>
+      </c>
+      <c r="K197">
+        <v>33</v>
+      </c>
+      <c r="L197">
+        <v>33</v>
+      </c>
+      <c r="M197">
+        <v>34</v>
+      </c>
+      <c r="N197">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>50</v>
       </c>
@@ -5616,8 +8702,23 @@
       <c r="I198">
         <v>56</v>
       </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J198">
+        <v>33</v>
+      </c>
+      <c r="K198">
+        <v>33</v>
+      </c>
+      <c r="L198">
+        <v>33</v>
+      </c>
+      <c r="M198">
+        <v>34</v>
+      </c>
+      <c r="N198">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>50</v>
       </c>
@@ -5642,8 +8743,23 @@
       <c r="I199">
         <v>49</v>
       </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J199">
+        <v>33</v>
+      </c>
+      <c r="K199">
+        <v>33</v>
+      </c>
+      <c r="L199">
+        <v>33</v>
+      </c>
+      <c r="M199">
+        <v>34</v>
+      </c>
+      <c r="N199">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>50</v>
       </c>
@@ -5668,8 +8784,23 @@
       <c r="I200">
         <v>50</v>
       </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J200">
+        <v>33</v>
+      </c>
+      <c r="K200">
+        <v>33</v>
+      </c>
+      <c r="L200">
+        <v>33</v>
+      </c>
+      <c r="M200">
+        <v>34</v>
+      </c>
+      <c r="N200">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>50</v>
       </c>
@@ -5694,8 +8825,23 @@
       <c r="I201">
         <v>50</v>
       </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <v>33</v>
+      </c>
+      <c r="K201">
+        <v>33</v>
+      </c>
+      <c r="L201">
+        <v>33</v>
+      </c>
+      <c r="M201">
+        <v>34</v>
+      </c>
+      <c r="N201">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>50</v>
       </c>
@@ -5720,8 +8866,23 @@
       <c r="I202">
         <v>56</v>
       </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J202">
+        <v>33</v>
+      </c>
+      <c r="K202">
+        <v>33</v>
+      </c>
+      <c r="L202">
+        <v>33</v>
+      </c>
+      <c r="M202">
+        <v>34</v>
+      </c>
+      <c r="N202">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>50</v>
       </c>
@@ -5746,8 +8907,23 @@
       <c r="I203">
         <v>56</v>
       </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <v>33</v>
+      </c>
+      <c r="K203">
+        <v>33</v>
+      </c>
+      <c r="L203">
+        <v>33</v>
+      </c>
+      <c r="M203">
+        <v>34</v>
+      </c>
+      <c r="N203">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>50</v>
       </c>
@@ -5772,8 +8948,23 @@
       <c r="I204">
         <v>55</v>
       </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <v>33</v>
+      </c>
+      <c r="K204">
+        <v>33</v>
+      </c>
+      <c r="L204">
+        <v>33</v>
+      </c>
+      <c r="M204">
+        <v>34</v>
+      </c>
+      <c r="N204">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>50</v>
       </c>
@@ -5798,8 +8989,23 @@
       <c r="I205">
         <v>56</v>
       </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <v>33</v>
+      </c>
+      <c r="K205">
+        <v>33</v>
+      </c>
+      <c r="L205">
+        <v>33</v>
+      </c>
+      <c r="M205">
+        <v>34</v>
+      </c>
+      <c r="N205">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>50</v>
       </c>
@@ -5824,8 +9030,23 @@
       <c r="I206">
         <v>55</v>
       </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J206">
+        <v>33</v>
+      </c>
+      <c r="K206">
+        <v>33</v>
+      </c>
+      <c r="L206">
+        <v>33</v>
+      </c>
+      <c r="M206">
+        <v>34</v>
+      </c>
+      <c r="N206">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>50</v>
       </c>
@@ -5850,8 +9071,23 @@
       <c r="I207">
         <v>55</v>
       </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <v>33</v>
+      </c>
+      <c r="K207">
+        <v>33</v>
+      </c>
+      <c r="L207">
+        <v>33</v>
+      </c>
+      <c r="M207">
+        <v>34</v>
+      </c>
+      <c r="N207">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>50</v>
       </c>
@@ -5876,8 +9112,23 @@
       <c r="I208">
         <v>56</v>
       </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J208">
+        <v>33</v>
+      </c>
+      <c r="K208">
+        <v>33</v>
+      </c>
+      <c r="L208">
+        <v>33</v>
+      </c>
+      <c r="M208">
+        <v>34</v>
+      </c>
+      <c r="N208">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>50</v>
       </c>
@@ -5902,8 +9153,23 @@
       <c r="I209">
         <v>55</v>
       </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J209">
+        <v>33</v>
+      </c>
+      <c r="K209">
+        <v>33</v>
+      </c>
+      <c r="L209">
+        <v>33</v>
+      </c>
+      <c r="M209">
+        <v>34</v>
+      </c>
+      <c r="N209">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>50</v>
       </c>
@@ -5928,8 +9194,23 @@
       <c r="I210">
         <v>55</v>
       </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <v>33</v>
+      </c>
+      <c r="K210">
+        <v>33</v>
+      </c>
+      <c r="L210">
+        <v>33</v>
+      </c>
+      <c r="M210">
+        <v>34</v>
+      </c>
+      <c r="N210">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>50</v>
       </c>
@@ -5954,8 +9235,23 @@
       <c r="I211">
         <v>55</v>
       </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <v>33</v>
+      </c>
+      <c r="K211">
+        <v>33</v>
+      </c>
+      <c r="L211">
+        <v>33</v>
+      </c>
+      <c r="M211">
+        <v>34</v>
+      </c>
+      <c r="N211">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>50</v>
       </c>
@@ -5980,8 +9276,23 @@
       <c r="I212">
         <v>56</v>
       </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <v>33</v>
+      </c>
+      <c r="K212">
+        <v>33</v>
+      </c>
+      <c r="L212">
+        <v>33</v>
+      </c>
+      <c r="M212">
+        <v>34</v>
+      </c>
+      <c r="N212">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>50</v>
       </c>
@@ -6006,8 +9317,23 @@
       <c r="I213">
         <v>56</v>
       </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <v>34</v>
+      </c>
+      <c r="K213">
+        <v>33</v>
+      </c>
+      <c r="L213">
+        <v>33</v>
+      </c>
+      <c r="M213">
+        <v>34</v>
+      </c>
+      <c r="N213">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>50</v>
       </c>
@@ -6032,8 +9358,23 @@
       <c r="I214">
         <v>55</v>
       </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <v>34</v>
+      </c>
+      <c r="K214">
+        <v>33</v>
+      </c>
+      <c r="L214">
+        <v>33</v>
+      </c>
+      <c r="M214">
+        <v>34</v>
+      </c>
+      <c r="N214">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>50</v>
       </c>
@@ -6058,8 +9399,23 @@
       <c r="I215">
         <v>56</v>
       </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <v>34</v>
+      </c>
+      <c r="K215">
+        <v>33</v>
+      </c>
+      <c r="L215">
+        <v>33</v>
+      </c>
+      <c r="M215">
+        <v>34</v>
+      </c>
+      <c r="N215">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>50</v>
       </c>
@@ -6084,8 +9440,23 @@
       <c r="I216">
         <v>56</v>
       </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J216">
+        <v>34</v>
+      </c>
+      <c r="K216">
+        <v>33</v>
+      </c>
+      <c r="L216">
+        <v>33</v>
+      </c>
+      <c r="M216">
+        <v>34</v>
+      </c>
+      <c r="N216">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>50</v>
       </c>
@@ -6110,8 +9481,23 @@
       <c r="I217">
         <v>55</v>
       </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J217">
+        <v>34</v>
+      </c>
+      <c r="K217">
+        <v>33</v>
+      </c>
+      <c r="L217">
+        <v>33</v>
+      </c>
+      <c r="M217">
+        <v>34</v>
+      </c>
+      <c r="N217">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>50</v>
       </c>
@@ -6136,8 +9522,23 @@
       <c r="I218">
         <v>55</v>
       </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J218">
+        <v>34</v>
+      </c>
+      <c r="K218">
+        <v>33</v>
+      </c>
+      <c r="L218">
+        <v>33</v>
+      </c>
+      <c r="M218">
+        <v>34</v>
+      </c>
+      <c r="N218">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>50</v>
       </c>
@@ -6162,8 +9563,23 @@
       <c r="I219">
         <v>56</v>
       </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J219">
+        <v>34</v>
+      </c>
+      <c r="K219">
+        <v>33</v>
+      </c>
+      <c r="L219">
+        <v>33</v>
+      </c>
+      <c r="M219">
+        <v>34</v>
+      </c>
+      <c r="N219">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>50</v>
       </c>
@@ -6188,8 +9604,23 @@
       <c r="I220">
         <v>55</v>
       </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J220">
+        <v>34</v>
+      </c>
+      <c r="K220">
+        <v>33</v>
+      </c>
+      <c r="L220">
+        <v>33</v>
+      </c>
+      <c r="M220">
+        <v>34</v>
+      </c>
+      <c r="N220">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>50</v>
       </c>
@@ -6214,8 +9645,23 @@
       <c r="I221">
         <v>55</v>
       </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J221">
+        <v>34</v>
+      </c>
+      <c r="K221">
+        <v>33</v>
+      </c>
+      <c r="L221">
+        <v>33</v>
+      </c>
+      <c r="M221">
+        <v>34</v>
+      </c>
+      <c r="N221">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>50</v>
       </c>
@@ -6240,8 +9686,23 @@
       <c r="I222">
         <v>56</v>
       </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J222">
+        <v>34</v>
+      </c>
+      <c r="K222">
+        <v>33</v>
+      </c>
+      <c r="L222">
+        <v>33</v>
+      </c>
+      <c r="M222">
+        <v>34</v>
+      </c>
+      <c r="N222">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>50</v>
       </c>
@@ -6266,8 +9727,23 @@
       <c r="I223">
         <v>56</v>
       </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J223">
+        <v>34</v>
+      </c>
+      <c r="K223">
+        <v>33</v>
+      </c>
+      <c r="L223">
+        <v>33</v>
+      </c>
+      <c r="M223">
+        <v>34</v>
+      </c>
+      <c r="N223">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>50</v>
       </c>
@@ -6292,8 +9768,23 @@
       <c r="I224">
         <v>56</v>
       </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J224">
+        <v>33</v>
+      </c>
+      <c r="K224">
+        <v>33</v>
+      </c>
+      <c r="L224">
+        <v>33</v>
+      </c>
+      <c r="M224">
+        <v>34</v>
+      </c>
+      <c r="N224">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>50</v>
       </c>
@@ -6318,8 +9809,23 @@
       <c r="I225">
         <v>55</v>
       </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J225">
+        <v>33</v>
+      </c>
+      <c r="K225">
+        <v>33</v>
+      </c>
+      <c r="L225">
+        <v>33</v>
+      </c>
+      <c r="M225">
+        <v>34</v>
+      </c>
+      <c r="N225">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>50</v>
       </c>
@@ -6344,8 +9850,23 @@
       <c r="I226">
         <v>56</v>
       </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J226">
+        <v>34</v>
+      </c>
+      <c r="K226">
+        <v>33</v>
+      </c>
+      <c r="L226">
+        <v>33</v>
+      </c>
+      <c r="M226">
+        <v>34</v>
+      </c>
+      <c r="N226">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>50</v>
       </c>
@@ -6370,8 +9891,23 @@
       <c r="I227">
         <v>56</v>
       </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J227">
+        <v>33</v>
+      </c>
+      <c r="K227">
+        <v>33</v>
+      </c>
+      <c r="L227">
+        <v>33</v>
+      </c>
+      <c r="M227">
+        <v>34</v>
+      </c>
+      <c r="N227">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>50</v>
       </c>
@@ -6396,8 +9932,23 @@
       <c r="I228">
         <v>56</v>
       </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J228">
+        <v>34</v>
+      </c>
+      <c r="K228">
+        <v>33</v>
+      </c>
+      <c r="L228">
+        <v>33</v>
+      </c>
+      <c r="M228">
+        <v>34</v>
+      </c>
+      <c r="N228">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>50</v>
       </c>
@@ -6422,8 +9973,23 @@
       <c r="I229">
         <v>55</v>
       </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J229">
+        <v>33</v>
+      </c>
+      <c r="K229">
+        <v>33</v>
+      </c>
+      <c r="L229">
+        <v>33</v>
+      </c>
+      <c r="M229">
+        <v>34</v>
+      </c>
+      <c r="N229">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>50</v>
       </c>
@@ -6448,8 +10014,23 @@
       <c r="I230">
         <v>55</v>
       </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J230">
+        <v>34</v>
+      </c>
+      <c r="K230">
+        <v>33</v>
+      </c>
+      <c r="L230">
+        <v>33</v>
+      </c>
+      <c r="M230">
+        <v>34</v>
+      </c>
+      <c r="N230">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>50</v>
       </c>
@@ -6474,8 +10055,23 @@
       <c r="I231">
         <v>56</v>
       </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J231">
+        <v>34</v>
+      </c>
+      <c r="K231">
+        <v>33</v>
+      </c>
+      <c r="L231">
+        <v>33</v>
+      </c>
+      <c r="M231">
+        <v>34</v>
+      </c>
+      <c r="N231">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>50</v>
       </c>
@@ -6500,8 +10096,23 @@
       <c r="I232">
         <v>55</v>
       </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J232">
+        <v>34</v>
+      </c>
+      <c r="K232">
+        <v>33</v>
+      </c>
+      <c r="L232">
+        <v>33</v>
+      </c>
+      <c r="M232">
+        <v>34</v>
+      </c>
+      <c r="N232">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>50</v>
       </c>
@@ -6526,8 +10137,23 @@
       <c r="I233">
         <v>55</v>
       </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J233">
+        <v>33</v>
+      </c>
+      <c r="K233">
+        <v>33</v>
+      </c>
+      <c r="L233">
+        <v>33</v>
+      </c>
+      <c r="M233">
+        <v>34</v>
+      </c>
+      <c r="N233">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>50</v>
       </c>
@@ -6552,8 +10178,23 @@
       <c r="I234">
         <v>55</v>
       </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J234">
+        <v>33</v>
+      </c>
+      <c r="K234">
+        <v>33</v>
+      </c>
+      <c r="L234">
+        <v>33</v>
+      </c>
+      <c r="M234">
+        <v>34</v>
+      </c>
+      <c r="N234">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>50</v>
       </c>
@@ -6578,8 +10219,23 @@
       <c r="I235">
         <v>55</v>
       </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J235">
+        <v>34</v>
+      </c>
+      <c r="K235">
+        <v>33</v>
+      </c>
+      <c r="L235">
+        <v>33</v>
+      </c>
+      <c r="M235">
+        <v>34</v>
+      </c>
+      <c r="N235">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>50</v>
       </c>
@@ -6604,8 +10260,23 @@
       <c r="I236">
         <v>55</v>
       </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J236">
+        <v>34</v>
+      </c>
+      <c r="K236">
+        <v>33</v>
+      </c>
+      <c r="L236">
+        <v>33</v>
+      </c>
+      <c r="M236">
+        <v>34</v>
+      </c>
+      <c r="N236">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>50</v>
       </c>
@@ -6630,8 +10301,23 @@
       <c r="I237">
         <v>56</v>
       </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J237">
+        <v>34</v>
+      </c>
+      <c r="K237">
+        <v>33</v>
+      </c>
+      <c r="L237">
+        <v>33</v>
+      </c>
+      <c r="M237">
+        <v>34</v>
+      </c>
+      <c r="N237">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>50</v>
       </c>
@@ -6656,8 +10342,23 @@
       <c r="I238">
         <v>55</v>
       </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J238">
+        <v>34</v>
+      </c>
+      <c r="K238">
+        <v>33</v>
+      </c>
+      <c r="L238">
+        <v>33</v>
+      </c>
+      <c r="M238">
+        <v>34</v>
+      </c>
+      <c r="N238">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>50</v>
       </c>
@@ -6682,8 +10383,23 @@
       <c r="I239">
         <v>55</v>
       </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J239">
+        <v>34</v>
+      </c>
+      <c r="K239">
+        <v>33</v>
+      </c>
+      <c r="L239">
+        <v>33</v>
+      </c>
+      <c r="M239">
+        <v>34</v>
+      </c>
+      <c r="N239">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>50</v>
       </c>
@@ -6708,8 +10424,23 @@
       <c r="I240">
         <v>56</v>
       </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J240">
+        <v>34</v>
+      </c>
+      <c r="K240">
+        <v>33</v>
+      </c>
+      <c r="L240">
+        <v>33</v>
+      </c>
+      <c r="M240">
+        <v>34</v>
+      </c>
+      <c r="N240">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>50</v>
       </c>
@@ -6734,8 +10465,23 @@
       <c r="I241">
         <v>55</v>
       </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J241">
+        <v>34</v>
+      </c>
+      <c r="K241">
+        <v>33</v>
+      </c>
+      <c r="L241">
+        <v>33</v>
+      </c>
+      <c r="M241">
+        <v>34</v>
+      </c>
+      <c r="N241">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>50</v>
       </c>
@@ -6760,8 +10506,23 @@
       <c r="I242">
         <v>56</v>
       </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J242">
+        <v>34</v>
+      </c>
+      <c r="K242">
+        <v>33</v>
+      </c>
+      <c r="L242">
+        <v>33</v>
+      </c>
+      <c r="M242">
+        <v>34</v>
+      </c>
+      <c r="N242">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>50</v>
       </c>
@@ -6786,8 +10547,23 @@
       <c r="I243">
         <v>56</v>
       </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J243">
+        <v>34</v>
+      </c>
+      <c r="K243">
+        <v>33</v>
+      </c>
+      <c r="L243">
+        <v>33</v>
+      </c>
+      <c r="M243">
+        <v>34</v>
+      </c>
+      <c r="N243">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>50</v>
       </c>
@@ -6812,8 +10588,23 @@
       <c r="I244">
         <v>56</v>
       </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J244">
+        <v>34</v>
+      </c>
+      <c r="K244">
+        <v>33</v>
+      </c>
+      <c r="L244">
+        <v>33</v>
+      </c>
+      <c r="M244">
+        <v>34</v>
+      </c>
+      <c r="N244">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>50</v>
       </c>
@@ -6838,8 +10629,23 @@
       <c r="I245">
         <v>56</v>
       </c>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J245">
+        <v>34</v>
+      </c>
+      <c r="K245">
+        <v>33</v>
+      </c>
+      <c r="L245">
+        <v>33</v>
+      </c>
+      <c r="M245">
+        <v>34</v>
+      </c>
+      <c r="N245">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>50</v>
       </c>
@@ -6864,8 +10670,23 @@
       <c r="I246">
         <v>56</v>
       </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J246">
+        <v>34</v>
+      </c>
+      <c r="K246">
+        <v>33</v>
+      </c>
+      <c r="L246">
+        <v>33</v>
+      </c>
+      <c r="M246">
+        <v>34</v>
+      </c>
+      <c r="N246">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>50</v>
       </c>
@@ -6890,8 +10711,23 @@
       <c r="I247">
         <v>56</v>
       </c>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J247">
+        <v>34</v>
+      </c>
+      <c r="K247">
+        <v>33</v>
+      </c>
+      <c r="L247">
+        <v>33</v>
+      </c>
+      <c r="M247">
+        <v>34</v>
+      </c>
+      <c r="N247">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>50</v>
       </c>
@@ -6916,8 +10752,23 @@
       <c r="I248">
         <v>56</v>
       </c>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J248">
+        <v>34</v>
+      </c>
+      <c r="K248">
+        <v>33</v>
+      </c>
+      <c r="L248">
+        <v>33</v>
+      </c>
+      <c r="M248">
+        <v>34</v>
+      </c>
+      <c r="N248">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>50</v>
       </c>
@@ -6942,8 +10793,23 @@
       <c r="I249">
         <v>56</v>
       </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J249">
+        <v>34</v>
+      </c>
+      <c r="K249">
+        <v>33</v>
+      </c>
+      <c r="L249">
+        <v>33</v>
+      </c>
+      <c r="M249">
+        <v>34</v>
+      </c>
+      <c r="N249">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>50</v>
       </c>
@@ -6968,8 +10834,23 @@
       <c r="I250">
         <v>56</v>
       </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J250">
+        <v>34</v>
+      </c>
+      <c r="K250">
+        <v>33</v>
+      </c>
+      <c r="L250">
+        <v>33</v>
+      </c>
+      <c r="M250">
+        <v>34</v>
+      </c>
+      <c r="N250">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>50</v>
       </c>
@@ -6994,8 +10875,23 @@
       <c r="I251">
         <v>56</v>
       </c>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J251">
+        <v>34</v>
+      </c>
+      <c r="K251">
+        <v>33</v>
+      </c>
+      <c r="L251">
+        <v>33</v>
+      </c>
+      <c r="M251">
+        <v>34</v>
+      </c>
+      <c r="N251">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>50</v>
       </c>
@@ -7020,8 +10916,23 @@
       <c r="I252">
         <v>55</v>
       </c>
-    </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J252">
+        <v>34</v>
+      </c>
+      <c r="K252">
+        <v>33</v>
+      </c>
+      <c r="L252">
+        <v>33</v>
+      </c>
+      <c r="M252">
+        <v>34</v>
+      </c>
+      <c r="N252">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>50</v>
       </c>
@@ -7046,8 +10957,23 @@
       <c r="I253">
         <v>56</v>
       </c>
-    </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J253">
+        <v>34</v>
+      </c>
+      <c r="K253">
+        <v>33</v>
+      </c>
+      <c r="L253">
+        <v>33</v>
+      </c>
+      <c r="M253">
+        <v>34</v>
+      </c>
+      <c r="N253">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>50</v>
       </c>
@@ -7072,8 +10998,23 @@
       <c r="I254">
         <v>55</v>
       </c>
-    </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J254">
+        <v>33</v>
+      </c>
+      <c r="K254">
+        <v>33</v>
+      </c>
+      <c r="L254">
+        <v>33</v>
+      </c>
+      <c r="M254">
+        <v>34</v>
+      </c>
+      <c r="N254">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>50</v>
       </c>
@@ -7098,8 +11039,23 @@
       <c r="I255">
         <v>56</v>
       </c>
-    </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J255">
+        <v>34</v>
+      </c>
+      <c r="K255">
+        <v>33</v>
+      </c>
+      <c r="L255">
+        <v>33</v>
+      </c>
+      <c r="M255">
+        <v>34</v>
+      </c>
+      <c r="N255">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>50</v>
       </c>
@@ -7124,8 +11080,23 @@
       <c r="I256">
         <v>56</v>
       </c>
-    </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J256">
+        <v>34</v>
+      </c>
+      <c r="K256">
+        <v>33</v>
+      </c>
+      <c r="L256">
+        <v>33</v>
+      </c>
+      <c r="M256">
+        <v>34</v>
+      </c>
+      <c r="N256">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>50</v>
       </c>
@@ -7150,8 +11121,23 @@
       <c r="I257">
         <v>56</v>
       </c>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J257">
+        <v>34</v>
+      </c>
+      <c r="K257">
+        <v>33</v>
+      </c>
+      <c r="L257">
+        <v>33</v>
+      </c>
+      <c r="M257">
+        <v>34</v>
+      </c>
+      <c r="N257">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>50</v>
       </c>
@@ -7176,8 +11162,23 @@
       <c r="I258">
         <v>56</v>
       </c>
-    </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J258">
+        <v>34</v>
+      </c>
+      <c r="K258">
+        <v>33</v>
+      </c>
+      <c r="L258">
+        <v>33</v>
+      </c>
+      <c r="M258">
+        <v>34</v>
+      </c>
+      <c r="N258">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>50</v>
       </c>
@@ -7202,8 +11203,23 @@
       <c r="I259">
         <v>56</v>
       </c>
-    </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J259">
+        <v>34</v>
+      </c>
+      <c r="K259">
+        <v>33</v>
+      </c>
+      <c r="L259">
+        <v>33</v>
+      </c>
+      <c r="M259">
+        <v>34</v>
+      </c>
+      <c r="N259">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>50</v>
       </c>
@@ -7228,8 +11244,23 @@
       <c r="I260">
         <v>56</v>
       </c>
-    </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J260">
+        <v>34</v>
+      </c>
+      <c r="K260">
+        <v>33</v>
+      </c>
+      <c r="L260">
+        <v>33</v>
+      </c>
+      <c r="M260">
+        <v>34</v>
+      </c>
+      <c r="N260">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>50</v>
       </c>
@@ -7254,8 +11285,23 @@
       <c r="I261">
         <v>54</v>
       </c>
-    </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J261">
+        <v>34</v>
+      </c>
+      <c r="K261">
+        <v>33</v>
+      </c>
+      <c r="L261">
+        <v>33</v>
+      </c>
+      <c r="M261">
+        <v>34</v>
+      </c>
+      <c r="N261">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>50</v>
       </c>
@@ -7280,8 +11326,23 @@
       <c r="I262">
         <v>56</v>
       </c>
-    </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J262">
+        <v>34</v>
+      </c>
+      <c r="K262">
+        <v>33</v>
+      </c>
+      <c r="L262">
+        <v>33</v>
+      </c>
+      <c r="M262">
+        <v>34</v>
+      </c>
+      <c r="N262">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>50</v>
       </c>
@@ -7306,8 +11367,23 @@
       <c r="I263">
         <v>56</v>
       </c>
-    </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J263">
+        <v>34</v>
+      </c>
+      <c r="K263">
+        <v>33</v>
+      </c>
+      <c r="L263">
+        <v>33</v>
+      </c>
+      <c r="M263">
+        <v>34</v>
+      </c>
+      <c r="N263">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>50</v>
       </c>
@@ -7332,8 +11408,23 @@
       <c r="I264">
         <v>55</v>
       </c>
-    </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J264">
+        <v>34</v>
+      </c>
+      <c r="K264">
+        <v>33</v>
+      </c>
+      <c r="L264">
+        <v>33</v>
+      </c>
+      <c r="M264">
+        <v>34</v>
+      </c>
+      <c r="N264">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>50</v>
       </c>
@@ -7358,8 +11449,23 @@
       <c r="I265">
         <v>55</v>
       </c>
-    </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J265">
+        <v>34</v>
+      </c>
+      <c r="K265">
+        <v>33</v>
+      </c>
+      <c r="L265">
+        <v>33</v>
+      </c>
+      <c r="M265">
+        <v>34</v>
+      </c>
+      <c r="N265">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>50</v>
       </c>
@@ -7384,8 +11490,23 @@
       <c r="I266">
         <v>55</v>
       </c>
-    </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J266">
+        <v>34</v>
+      </c>
+      <c r="K266">
+        <v>33</v>
+      </c>
+      <c r="L266">
+        <v>33</v>
+      </c>
+      <c r="M266">
+        <v>34</v>
+      </c>
+      <c r="N266">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>50</v>
       </c>
@@ -7410,8 +11531,23 @@
       <c r="I267">
         <v>55</v>
       </c>
-    </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J267">
+        <v>34</v>
+      </c>
+      <c r="K267">
+        <v>33</v>
+      </c>
+      <c r="L267">
+        <v>33</v>
+      </c>
+      <c r="M267">
+        <v>34</v>
+      </c>
+      <c r="N267">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>50</v>
       </c>
@@ -7436,8 +11572,23 @@
       <c r="I268">
         <v>55</v>
       </c>
-    </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J268">
+        <v>34</v>
+      </c>
+      <c r="K268">
+        <v>33</v>
+      </c>
+      <c r="L268">
+        <v>33</v>
+      </c>
+      <c r="M268">
+        <v>34</v>
+      </c>
+      <c r="N268">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>50</v>
       </c>
@@ -7462,8 +11613,23 @@
       <c r="I269">
         <v>55</v>
       </c>
-    </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J269">
+        <v>33</v>
+      </c>
+      <c r="K269">
+        <v>33</v>
+      </c>
+      <c r="L269">
+        <v>33</v>
+      </c>
+      <c r="M269">
+        <v>34</v>
+      </c>
+      <c r="N269">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>50</v>
       </c>
@@ -7488,8 +11654,23 @@
       <c r="I270">
         <v>56</v>
       </c>
-    </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J270">
+        <v>33</v>
+      </c>
+      <c r="K270">
+        <v>33</v>
+      </c>
+      <c r="L270">
+        <v>33</v>
+      </c>
+      <c r="M270">
+        <v>34</v>
+      </c>
+      <c r="N270">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>50</v>
       </c>
@@ -7514,8 +11695,23 @@
       <c r="I271">
         <v>56</v>
       </c>
-    </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J271">
+        <v>33</v>
+      </c>
+      <c r="K271">
+        <v>33</v>
+      </c>
+      <c r="L271">
+        <v>33</v>
+      </c>
+      <c r="M271">
+        <v>34</v>
+      </c>
+      <c r="N271">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>50</v>
       </c>
@@ -7540,8 +11736,23 @@
       <c r="I272">
         <v>56</v>
       </c>
-    </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J272">
+        <v>33</v>
+      </c>
+      <c r="K272">
+        <v>33</v>
+      </c>
+      <c r="L272">
+        <v>33</v>
+      </c>
+      <c r="M272">
+        <v>34</v>
+      </c>
+      <c r="N272">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>50</v>
       </c>
@@ -7566,8 +11777,23 @@
       <c r="I273">
         <v>56</v>
       </c>
-    </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J273">
+        <v>33</v>
+      </c>
+      <c r="K273">
+        <v>33</v>
+      </c>
+      <c r="L273">
+        <v>33</v>
+      </c>
+      <c r="M273">
+        <v>34</v>
+      </c>
+      <c r="N273">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>50</v>
       </c>
@@ -7592,8 +11818,23 @@
       <c r="I274">
         <v>54</v>
       </c>
-    </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J274">
+        <v>33</v>
+      </c>
+      <c r="K274">
+        <v>33</v>
+      </c>
+      <c r="L274">
+        <v>33</v>
+      </c>
+      <c r="M274">
+        <v>34</v>
+      </c>
+      <c r="N274">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>50</v>
       </c>
@@ -7618,8 +11859,23 @@
       <c r="I275">
         <v>56</v>
       </c>
-    </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J275">
+        <v>33</v>
+      </c>
+      <c r="K275">
+        <v>33</v>
+      </c>
+      <c r="L275">
+        <v>33</v>
+      </c>
+      <c r="M275">
+        <v>34</v>
+      </c>
+      <c r="N275">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>50</v>
       </c>
@@ -7644,8 +11900,23 @@
       <c r="I276">
         <v>56</v>
       </c>
-    </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J276">
+        <v>33</v>
+      </c>
+      <c r="K276">
+        <v>33</v>
+      </c>
+      <c r="L276">
+        <v>33</v>
+      </c>
+      <c r="M276">
+        <v>34</v>
+      </c>
+      <c r="N276">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>50</v>
       </c>
@@ -7670,8 +11941,23 @@
       <c r="I277">
         <v>56</v>
       </c>
-    </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J277">
+        <v>33</v>
+      </c>
+      <c r="K277">
+        <v>33</v>
+      </c>
+      <c r="L277">
+        <v>33</v>
+      </c>
+      <c r="M277">
+        <v>34</v>
+      </c>
+      <c r="N277">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>50</v>
       </c>
@@ -7696,8 +11982,23 @@
       <c r="I278">
         <v>56</v>
       </c>
-    </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J278">
+        <v>34</v>
+      </c>
+      <c r="K278">
+        <v>33</v>
+      </c>
+      <c r="L278">
+        <v>33</v>
+      </c>
+      <c r="M278">
+        <v>34</v>
+      </c>
+      <c r="N278">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>50</v>
       </c>
@@ -7722,8 +12023,23 @@
       <c r="I279">
         <v>55</v>
       </c>
-    </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J279">
+        <v>33</v>
+      </c>
+      <c r="K279">
+        <v>33</v>
+      </c>
+      <c r="L279">
+        <v>33</v>
+      </c>
+      <c r="M279">
+        <v>34</v>
+      </c>
+      <c r="N279">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>50</v>
       </c>
@@ -7748,8 +12064,23 @@
       <c r="I280">
         <v>56</v>
       </c>
-    </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J280">
+        <v>33</v>
+      </c>
+      <c r="K280">
+        <v>33</v>
+      </c>
+      <c r="L280">
+        <v>33</v>
+      </c>
+      <c r="M280">
+        <v>34</v>
+      </c>
+      <c r="N280">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>50</v>
       </c>
@@ -7774,8 +12105,23 @@
       <c r="I281">
         <v>56</v>
       </c>
-    </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J281">
+        <v>33</v>
+      </c>
+      <c r="K281">
+        <v>33</v>
+      </c>
+      <c r="L281">
+        <v>33</v>
+      </c>
+      <c r="M281">
+        <v>34</v>
+      </c>
+      <c r="N281">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>50</v>
       </c>
@@ -7800,8 +12146,23 @@
       <c r="I282">
         <v>55</v>
       </c>
-    </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J282">
+        <v>33</v>
+      </c>
+      <c r="K282">
+        <v>33</v>
+      </c>
+      <c r="L282">
+        <v>33</v>
+      </c>
+      <c r="M282">
+        <v>34</v>
+      </c>
+      <c r="N282">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>50</v>
       </c>
@@ -7826,8 +12187,23 @@
       <c r="I283">
         <v>55</v>
       </c>
-    </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J283">
+        <v>33</v>
+      </c>
+      <c r="K283">
+        <v>33</v>
+      </c>
+      <c r="L283">
+        <v>33</v>
+      </c>
+      <c r="M283">
+        <v>34</v>
+      </c>
+      <c r="N283">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>50</v>
       </c>
@@ -7852,8 +12228,23 @@
       <c r="I284">
         <v>56</v>
       </c>
-    </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J284">
+        <v>33</v>
+      </c>
+      <c r="K284">
+        <v>33</v>
+      </c>
+      <c r="L284">
+        <v>33</v>
+      </c>
+      <c r="M284">
+        <v>34</v>
+      </c>
+      <c r="N284">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>50</v>
       </c>
@@ -7878,8 +12269,23 @@
       <c r="I285">
         <v>55</v>
       </c>
-    </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J285">
+        <v>33</v>
+      </c>
+      <c r="K285">
+        <v>33</v>
+      </c>
+      <c r="L285">
+        <v>33</v>
+      </c>
+      <c r="M285">
+        <v>34</v>
+      </c>
+      <c r="N285">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>50</v>
       </c>
@@ -7904,8 +12310,23 @@
       <c r="I286">
         <v>56</v>
       </c>
-    </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J286">
+        <v>33</v>
+      </c>
+      <c r="K286">
+        <v>33</v>
+      </c>
+      <c r="L286">
+        <v>33</v>
+      </c>
+      <c r="M286">
+        <v>34</v>
+      </c>
+      <c r="N286">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>50</v>
       </c>
@@ -7930,8 +12351,23 @@
       <c r="I287">
         <v>56</v>
       </c>
-    </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J287">
+        <v>33</v>
+      </c>
+      <c r="K287">
+        <v>33</v>
+      </c>
+      <c r="L287">
+        <v>33</v>
+      </c>
+      <c r="M287">
+        <v>34</v>
+      </c>
+      <c r="N287">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>50</v>
       </c>
@@ -7956,8 +12392,23 @@
       <c r="I288">
         <v>55</v>
       </c>
-    </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J288">
+        <v>33</v>
+      </c>
+      <c r="K288">
+        <v>33</v>
+      </c>
+      <c r="L288">
+        <v>33</v>
+      </c>
+      <c r="M288">
+        <v>34</v>
+      </c>
+      <c r="N288">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>50</v>
       </c>
@@ -7982,8 +12433,23 @@
       <c r="I289">
         <v>55</v>
       </c>
-    </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J289">
+        <v>33</v>
+      </c>
+      <c r="K289">
+        <v>33</v>
+      </c>
+      <c r="L289">
+        <v>33</v>
+      </c>
+      <c r="M289">
+        <v>34</v>
+      </c>
+      <c r="N289">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>50</v>
       </c>
@@ -8008,8 +12474,23 @@
       <c r="I290">
         <v>56</v>
       </c>
-    </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J290">
+        <v>33</v>
+      </c>
+      <c r="K290">
+        <v>33</v>
+      </c>
+      <c r="L290">
+        <v>33</v>
+      </c>
+      <c r="M290">
+        <v>34</v>
+      </c>
+      <c r="N290">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>50</v>
       </c>
@@ -8034,8 +12515,23 @@
       <c r="I291">
         <v>56</v>
       </c>
-    </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J291">
+        <v>33</v>
+      </c>
+      <c r="K291">
+        <v>33</v>
+      </c>
+      <c r="L291">
+        <v>33</v>
+      </c>
+      <c r="M291">
+        <v>34</v>
+      </c>
+      <c r="N291">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>50</v>
       </c>
@@ -8060,8 +12556,23 @@
       <c r="I292">
         <v>55</v>
       </c>
-    </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J292">
+        <v>33</v>
+      </c>
+      <c r="K292">
+        <v>33</v>
+      </c>
+      <c r="L292">
+        <v>33</v>
+      </c>
+      <c r="M292">
+        <v>34</v>
+      </c>
+      <c r="N292">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>50</v>
       </c>
@@ -8086,8 +12597,23 @@
       <c r="I293">
         <v>56</v>
       </c>
-    </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J293">
+        <v>33</v>
+      </c>
+      <c r="K293">
+        <v>33</v>
+      </c>
+      <c r="L293">
+        <v>33</v>
+      </c>
+      <c r="M293">
+        <v>34</v>
+      </c>
+      <c r="N293">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>50</v>
       </c>
@@ -8112,8 +12638,23 @@
       <c r="I294">
         <v>56</v>
       </c>
-    </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J294">
+        <v>33</v>
+      </c>
+      <c r="K294">
+        <v>33</v>
+      </c>
+      <c r="L294">
+        <v>33</v>
+      </c>
+      <c r="M294">
+        <v>34</v>
+      </c>
+      <c r="N294">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>50</v>
       </c>
@@ -8138,8 +12679,23 @@
       <c r="I295">
         <v>56</v>
       </c>
-    </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J295">
+        <v>34</v>
+      </c>
+      <c r="K295">
+        <v>33</v>
+      </c>
+      <c r="L295">
+        <v>33</v>
+      </c>
+      <c r="M295">
+        <v>34</v>
+      </c>
+      <c r="N295">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>50</v>
       </c>
@@ -8164,8 +12720,23 @@
       <c r="I296">
         <v>56</v>
       </c>
-    </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J296">
+        <v>34</v>
+      </c>
+      <c r="K296">
+        <v>33</v>
+      </c>
+      <c r="L296">
+        <v>33</v>
+      </c>
+      <c r="M296">
+        <v>34</v>
+      </c>
+      <c r="N296">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>50</v>
       </c>
@@ -8190,8 +12761,23 @@
       <c r="I297">
         <v>56</v>
       </c>
-    </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J297">
+        <v>34</v>
+      </c>
+      <c r="K297">
+        <v>33</v>
+      </c>
+      <c r="L297">
+        <v>33</v>
+      </c>
+      <c r="M297">
+        <v>34</v>
+      </c>
+      <c r="N297">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>50</v>
       </c>
@@ -8216,8 +12802,23 @@
       <c r="I298">
         <v>56</v>
       </c>
-    </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J298">
+        <v>34</v>
+      </c>
+      <c r="K298">
+        <v>33</v>
+      </c>
+      <c r="L298">
+        <v>33</v>
+      </c>
+      <c r="M298">
+        <v>34</v>
+      </c>
+      <c r="N298">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>50</v>
       </c>
@@ -8242,8 +12843,23 @@
       <c r="I299">
         <v>55</v>
       </c>
-    </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J299">
+        <v>34</v>
+      </c>
+      <c r="K299">
+        <v>33</v>
+      </c>
+      <c r="L299">
+        <v>33</v>
+      </c>
+      <c r="M299">
+        <v>34</v>
+      </c>
+      <c r="N299">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>50</v>
       </c>
@@ -8268,8 +12884,23 @@
       <c r="I300">
         <v>56</v>
       </c>
-    </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J300">
+        <v>34</v>
+      </c>
+      <c r="K300">
+        <v>33</v>
+      </c>
+      <c r="L300">
+        <v>33</v>
+      </c>
+      <c r="M300">
+        <v>34</v>
+      </c>
+      <c r="N300">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>50</v>
       </c>
@@ -8294,8 +12925,23 @@
       <c r="I301">
         <v>56</v>
       </c>
-    </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J301">
+        <v>34</v>
+      </c>
+      <c r="K301">
+        <v>33</v>
+      </c>
+      <c r="L301">
+        <v>33</v>
+      </c>
+      <c r="M301">
+        <v>34</v>
+      </c>
+      <c r="N301">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>50</v>
       </c>
@@ -8320,8 +12966,23 @@
       <c r="I302">
         <v>56</v>
       </c>
-    </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J302">
+        <v>33</v>
+      </c>
+      <c r="K302">
+        <v>33</v>
+      </c>
+      <c r="L302">
+        <v>33</v>
+      </c>
+      <c r="M302">
+        <v>34</v>
+      </c>
+      <c r="N302">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>50</v>
       </c>
@@ -8346,8 +13007,23 @@
       <c r="I303">
         <v>55</v>
       </c>
-    </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J303">
+        <v>33</v>
+      </c>
+      <c r="K303">
+        <v>33</v>
+      </c>
+      <c r="L303">
+        <v>33</v>
+      </c>
+      <c r="M303">
+        <v>34</v>
+      </c>
+      <c r="N303">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>50</v>
       </c>

--- a/SilverSurferVerslag/data/Lichtsensor berekeningen.xlsx
+++ b/SilverSurferVerslag/data/Lichtsensor berekeningen.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7740" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Licht" sheetId="1" r:id="rId1"/>
-    <sheet name="Boxplot Licht" sheetId="3" r:id="rId2"/>
-    <sheet name="Ultrasoon" sheetId="4" r:id="rId3"/>
-    <sheet name="Boxplot ultrasoon" sheetId="5" r:id="rId4"/>
+    <sheet name="Test" sheetId="9" r:id="rId1"/>
+    <sheet name="Licht" sheetId="1" r:id="rId2"/>
+    <sheet name="LS Wit" sheetId="10" r:id="rId3"/>
+    <sheet name="LS Paneel" sheetId="11" r:id="rId4"/>
+    <sheet name="LS Zwart" sheetId="12" r:id="rId5"/>
+    <sheet name="Ultrasoon" sheetId="4" r:id="rId6"/>
+    <sheet name="Boxplot ultrasoon" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -175,6 +177,9 @@
   <si>
     <t>eindwaarde</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
@@ -291,16 +296,26 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.265756741815956E-2"/>
+          <c:y val="2.7370834325048107E-2"/>
+          <c:w val="0.39665974812434973"/>
+          <c:h val="0.88017804645320852"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -323,6 +338,16 @@
             <a:noFill/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:errBars>
             <c:errBarType val="minus"/>
             <c:errValType val="cust"/>
@@ -338,132 +363,30 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Licht!$B$12:$M$12</c:f>
+                <c:f>Licht!$N$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:tailEnd type="none"/>
+              </a:ln>
+            </c:spPr>
           </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Licht!$B$2:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>WVN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WVR</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WWN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WWR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>PVN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PVR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PWN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>PWR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ZVN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ZVR</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ZWN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Licht!$B$11:$M$11</c:f>
+              <c:f>Licht!$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,89 +406,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Licht!$B$2:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>WVN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WVR</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WWN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WWR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>PVN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PVR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PWN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>PWR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ZVN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ZVR</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ZWN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Licht!$B$10:$M$10</c:f>
+              <c:f>Licht!$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,51 +448,36 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:errBars>
             <c:errBarType val="plus"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Licht!$B$8:$M$8</c:f>
+                <c:f>Licht!$N$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
                     <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -644,89 +491,18 @@
                 </c:pt>
               </c:numLit>
             </c:minus>
+            <c:spPr>
+              <a:ln w="25400"/>
+            </c:spPr>
           </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Licht!$B$2:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>WVN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WVR</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WWN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WWR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>PVN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PVR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PWN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>PWR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ZVN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ZVR</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ZWN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Licht!$B$9:$M$9</c:f>
+              <c:f>Licht!$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,11 +518,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="53841280"/>
-        <c:axId val="53847552"/>
+        <c:axId val="40457728"/>
+        <c:axId val="40459648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53841280"/>
+        <c:axId val="40457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,10 +547,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53847552"/>
+        <c:crossAx val="40459648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -782,11 +559,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53847552"/>
+        <c:axId val="40459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -795,7 +570,7 @@
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
@@ -824,7 +599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53841280"/>
+        <c:crossAx val="40457728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -833,11 +608,1064 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.265756741815956E-2"/>
+          <c:y val="2.7370834325048107E-2"/>
+          <c:w val="0.39665974812434973"/>
+          <c:h val="0.88017804645320852"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>onderkant box</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Licht!$N$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400"/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Licht!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>wit - veel licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wit - veel licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wit - weinig licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wit - weinig licht - rijdend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1 tot mediaan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Licht!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>wit - veel licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wit - veel licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wit - weinig licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wit - weinig licht - rijdend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediaan tot Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Licht!$N$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:tailEnd type="none"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Licht!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>wit - veel licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wit - veel licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wit - weinig licht - niet rijdend</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wit - weinig licht - rijdend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="79581952"/>
+        <c:axId val="79583872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79581952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Titel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79583872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79583872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Titel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79581952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.265756741815956E-2"/>
+          <c:y val="2.7370834325048107E-2"/>
+          <c:w val="0.39665974812434973"/>
+          <c:h val="0.88017804645320852"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>onderkant box</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Licht!$N$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:tailEnd type="none"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1 tot mediaan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediaan tot Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Licht!$N$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400"/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="104616320"/>
+        <c:axId val="104618624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104616320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Beschrijving experiment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104618624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104618624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Meetwaarden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104616320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.265756741815956E-2"/>
+          <c:y val="2.7370834325048107E-2"/>
+          <c:w val="0.39665974812434973"/>
+          <c:h val="0.88017804645320852"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>onderkant box</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Licht!$N$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:tailEnd type="none"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1 tot mediaan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Licht!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediaan tot Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Licht!$N$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400"/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Licht!$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="39674624"/>
+        <c:axId val="39676544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39674624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Beschrijving experiment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39676544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39676544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Meetwaarden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39674624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-BE"/>
@@ -1455,11 +2283,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="53972352"/>
-        <c:axId val="53978624"/>
+        <c:axId val="92559232"/>
+        <c:axId val="92569600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53972352"/>
+        <c:axId val="92559232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +2319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53978624"/>
+        <c:crossAx val="92569600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1499,7 +2327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53978624"/>
+        <c:axId val="92569600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -1541,7 +2369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53972352"/>
+        <c:crossAx val="92559232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1569,7 +2397,40 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="61" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="61" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1604,40 +2465,30 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.428</cdr:x>
-      <cdr:y>0.18735</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.55929</cdr:x>
-      <cdr:y>0.42849</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Tekstvak 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2980765" y="710454"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="nl-BE" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1668,6 +2519,60 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6074139"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2334,12 +3239,293 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Kantoor">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Kantoor">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Kantoor">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1014"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,6 +3614,9 @@
       <c r="M2" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="N2" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2771,7 +3960,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -2829,7 +4020,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5">
+        <v>5</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -2887,7 +4080,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <v>5</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -2945,7 +4140,9 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5">
+        <v>10</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -3003,7 +4200,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>5</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -19961,7 +21160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
